--- a/dashboards_II.xlsx
+++ b/dashboards_II.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Git/04. DashBoard Especialista/02.Dashboard 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86D92F17-F519-42BA-A41D-A86798F98BAF}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3421F1DA-5902-47DB-8CF4-EA0047637F4F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rascunho Dash" sheetId="15" r:id="rId1"/>
+    <sheet name="Rascunho Dash" sheetId="15" state="hidden" r:id="rId1"/>
     <sheet name="Lista Dados" sheetId="2" r:id="rId2"/>
-    <sheet name="Reservas" sheetId="3" r:id="rId3"/>
+    <sheet name="Banco de Dados" sheetId="3" r:id="rId3"/>
     <sheet name="Auxiliar" sheetId="16" r:id="rId4"/>
     <sheet name="Dashboard" sheetId="17" r:id="rId5"/>
   </sheets>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="97">
   <si>
     <t>Priscila</t>
   </si>
@@ -610,10 +610,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -638,7 +638,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -727,8 +733,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Seletores" pivot="0" table="0" count="4" xr9:uid="{E1243ECD-0DC6-41CA-9F93-06C8CF1A6513}">
-      <tableStyleElement type="wholeTable" dxfId="18"/>
-      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -813,7 +819,7 @@
         <xdr:cNvPr id="2" name="Retângulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -874,7 +880,7 @@
         <xdr:cNvPr id="3" name="Retângulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -935,7 +941,7 @@
         <xdr:cNvPr id="4" name="Retângulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,7 +1007,7 @@
         <xdr:cNvPr id="5" name="Retângulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1062,7 +1068,7 @@
         <xdr:cNvPr id="6" name="Retângulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,7 +1129,7 @@
         <xdr:cNvPr id="7" name="Retângulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,7 +1190,7 @@
         <xdr:cNvPr id="8" name="Retângulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,7 +1261,7 @@
         <xdr:cNvPr id="9" name="Retângulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1322,7 @@
         <xdr:cNvPr id="10" name="Retângulo 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1712,21 +1718,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7203CBA3-2462-4655-BF37-85939DE5172B}" name="Reservas" displayName="Reservas" ref="A2:J477">
-  <autoFilter ref="A2:J477" xr:uid="{3C62A2CF-B0C6-4349-86CC-B9116E1F7234}"/>
-  <tableColumns count="10">
-    <tableColumn id="4" xr3:uid="{2C32A121-3A88-4118-B2EA-5800BD5586FB}" name="ID" dataDxfId="16"/>
-    <tableColumn id="1" xr3:uid="{F795160C-B162-4185-BC82-75CB0DC72F4D}" name="Data" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{00D72475-086D-44FA-A80C-09256480B803}" name="Estado" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{476063AC-9577-4FAC-983E-C5FAF6BF7558}" name="Tipo Reserva" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{03814805-2221-4C8B-86B6-1ACDED04362C}" name="Vendedor" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{AAFA9C41-1C4C-41E2-AE2C-267E8DBDB225}" name="Forma Pagamento" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{7F8DBAE5-D457-4B1B-9327-BCD05E2608BF}" name="Valor Total" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{E9BA0D40-E6FB-49CF-AA1A-49B5F9D65AED}" name="Comissão" dataDxfId="3" totalsRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7203CBA3-2462-4655-BF37-85939DE5172B}" name="Reservas" displayName="Reservas" ref="A2:L477">
+  <autoFilter ref="A2:L477" xr:uid="{3C62A2CF-B0C6-4349-86CC-B9116E1F7234}"/>
+  <tableColumns count="12">
+    <tableColumn id="4" xr3:uid="{2C32A121-3A88-4118-B2EA-5800BD5586FB}" name="ID" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{F795160C-B162-4185-BC82-75CB0DC72F4D}" name="Data" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00D72475-086D-44FA-A80C-09256480B803}" name="Estado" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{476063AC-9577-4FAC-983E-C5FAF6BF7558}" name="Tipo Reserva" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{03814805-2221-4C8B-86B6-1ACDED04362C}" name="Vendedor" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{AAFA9C41-1C4C-41E2-AE2C-267E8DBDB225}" name="Forma Pagamento" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{7F8DBAE5-D457-4B1B-9327-BCD05E2608BF}" name="Valor Total" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{E9BA0D40-E6FB-49CF-AA1A-49B5F9D65AED}" name="Comissão" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>Reservas[[#This Row],[Valor Total]]*5%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{2D7B0562-F5C2-4C2F-9390-E6F85DD75D17}" name="Status" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{170F4F30-9FE3-46A5-867E-DB92B053B109}" name="Avaliação" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2D7B0562-F5C2-4C2F-9390-E6F85DD75D17}" name="Status" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{170F4F30-9FE3-46A5-867E-DB92B053B109}" name="Avaliação" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{D2CA0358-BEBE-4A6C-A698-8F6495B0B9BF}" name="Ano" dataDxfId="1">
+      <calculatedColumnFormula>YEAR(Reservas[[#This Row],[Data]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{AEBBF285-942F-45D4-BB4A-4D4C882EFF48}" name="Mês" dataDxfId="0">
+      <calculatedColumnFormula>MONTH(Reservas[[#This Row],[Data]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2044,17 +2056,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
@@ -2096,16 +2108,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -2323,10 +2335,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J477"/>
+  <dimension ref="A1:L477"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2343,21 +2355,23 @@
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:12" ht="36" customHeight="1">
+      <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -2388,8 +2402,14 @@
       <c r="J2" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>2003</v>
       </c>
@@ -2421,8 +2441,16 @@
       <c r="J3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L3">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2004</v>
       </c>
@@ -2454,8 +2482,16 @@
       <c r="J4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L4">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>2005</v>
       </c>
@@ -2487,8 +2523,16 @@
       <c r="J5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L5">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>2006</v>
       </c>
@@ -2520,8 +2564,16 @@
       <c r="J6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L6">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -2553,8 +2605,16 @@
       <c r="J7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L7">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>2008</v>
       </c>
@@ -2586,8 +2646,16 @@
       <c r="J8" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L8">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>2009</v>
       </c>
@@ -2619,8 +2687,16 @@
       <c r="J9" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L9">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>2010</v>
       </c>
@@ -2652,8 +2728,16 @@
       <c r="J10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L10">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>2011</v>
       </c>
@@ -2685,8 +2769,16 @@
       <c r="J11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L11">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>2012</v>
       </c>
@@ -2718,8 +2810,16 @@
       <c r="J12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L12">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>2013</v>
       </c>
@@ -2751,8 +2851,16 @@
       <c r="J13" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L13">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>2014</v>
       </c>
@@ -2784,8 +2892,16 @@
       <c r="J14" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L14">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>2015</v>
       </c>
@@ -2817,8 +2933,16 @@
       <c r="J15" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L15">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>2016</v>
       </c>
@@ -2850,8 +2974,16 @@
       <c r="J16" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L16">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>2017</v>
       </c>
@@ -2883,8 +3015,16 @@
       <c r="J17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L17">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>2018</v>
       </c>
@@ -2916,8 +3056,16 @@
       <c r="J18" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L18">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>2019</v>
       </c>
@@ -2949,8 +3097,16 @@
       <c r="J19" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L19">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>2020</v>
       </c>
@@ -2982,8 +3138,16 @@
       <c r="J20" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L20">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>2021</v>
       </c>
@@ -3015,8 +3179,16 @@
       <c r="J21" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L21">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>2022</v>
       </c>
@@ -3048,8 +3220,16 @@
       <c r="J22" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L22">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>2023</v>
       </c>
@@ -3081,8 +3261,16 @@
       <c r="J23" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L23">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>2024</v>
       </c>
@@ -3114,8 +3302,16 @@
       <c r="J24" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L24">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>2025</v>
       </c>
@@ -3147,8 +3343,16 @@
       <c r="J25" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L25">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>2026</v>
       </c>
@@ -3180,8 +3384,16 @@
       <c r="J26" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L26">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>2027</v>
       </c>
@@ -3213,8 +3425,16 @@
       <c r="J27" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L27">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>2028</v>
       </c>
@@ -3246,8 +3466,16 @@
       <c r="J28" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L28">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>2029</v>
       </c>
@@ -3279,8 +3507,16 @@
       <c r="J29" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L29">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>2030</v>
       </c>
@@ -3312,8 +3548,16 @@
       <c r="J30" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L30">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>2031</v>
       </c>
@@ -3345,8 +3589,16 @@
       <c r="J31" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L31">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>2032</v>
       </c>
@@ -3378,8 +3630,16 @@
       <c r="J32" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L32">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>2033</v>
       </c>
@@ -3411,8 +3671,16 @@
       <c r="J33" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L33">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>2034</v>
       </c>
@@ -3444,8 +3712,16 @@
       <c r="J34" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L34">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>2035</v>
       </c>
@@ -3477,8 +3753,16 @@
       <c r="J35" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L35">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>2036</v>
       </c>
@@ -3510,8 +3794,16 @@
       <c r="J36" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L36">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>2037</v>
       </c>
@@ -3543,8 +3835,16 @@
       <c r="J37" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L37">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>2038</v>
       </c>
@@ -3576,8 +3876,16 @@
       <c r="J38" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L38">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>2039</v>
       </c>
@@ -3609,8 +3917,16 @@
       <c r="J39" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L39">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>2040</v>
       </c>
@@ -3642,8 +3958,16 @@
       <c r="J40" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L40">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>2041</v>
       </c>
@@ -3675,8 +3999,16 @@
       <c r="J41" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L41">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>2042</v>
       </c>
@@ -3708,8 +4040,16 @@
       <c r="J42" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L42">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>2043</v>
       </c>
@@ -3741,8 +4081,16 @@
       <c r="J43" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L43">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>2044</v>
       </c>
@@ -3774,8 +4122,16 @@
       <c r="J44" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L44">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>2045</v>
       </c>
@@ -3807,8 +4163,16 @@
       <c r="J45" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L45">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>2046</v>
       </c>
@@ -3840,8 +4204,16 @@
       <c r="J46" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L46">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>2047</v>
       </c>
@@ -3873,8 +4245,16 @@
       <c r="J47" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L47">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>2048</v>
       </c>
@@ -3906,8 +4286,16 @@
       <c r="J48" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L48">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>2049</v>
       </c>
@@ -3939,8 +4327,16 @@
       <c r="J49" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L49">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>2050</v>
       </c>
@@ -3972,8 +4368,16 @@
       <c r="J50" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L50">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>2051</v>
       </c>
@@ -4005,8 +4409,16 @@
       <c r="J51" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L51">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>2052</v>
       </c>
@@ -4038,8 +4450,16 @@
       <c r="J52" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L52">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>2053</v>
       </c>
@@ -4071,8 +4491,16 @@
       <c r="J53" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L53">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>2054</v>
       </c>
@@ -4104,8 +4532,16 @@
       <c r="J54" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L54">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>2055</v>
       </c>
@@ -4137,8 +4573,16 @@
       <c r="J55" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L55">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>2056</v>
       </c>
@@ -4170,8 +4614,16 @@
       <c r="J56" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L56">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>2057</v>
       </c>
@@ -4203,8 +4655,16 @@
       <c r="J57" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L57">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>2058</v>
       </c>
@@ -4236,8 +4696,16 @@
       <c r="J58" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L58">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>2059</v>
       </c>
@@ -4269,8 +4737,16 @@
       <c r="J59" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L59">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>2060</v>
       </c>
@@ -4302,8 +4778,16 @@
       <c r="J60" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L60">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>2061</v>
       </c>
@@ -4335,8 +4819,16 @@
       <c r="J61" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L61">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>2062</v>
       </c>
@@ -4368,8 +4860,16 @@
       <c r="J62" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L62">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>2063</v>
       </c>
@@ -4401,8 +4901,16 @@
       <c r="J63" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L63">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>2064</v>
       </c>
@@ -4434,8 +4942,16 @@
       <c r="J64" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L64">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>2065</v>
       </c>
@@ -4467,8 +4983,16 @@
       <c r="J65" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L65">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>2066</v>
       </c>
@@ -4500,8 +5024,16 @@
       <c r="J66" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L66">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>2067</v>
       </c>
@@ -4533,8 +5065,16 @@
       <c r="J67" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L67">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>2068</v>
       </c>
@@ -4566,8 +5106,16 @@
       <c r="J68" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L68">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1">
         <v>2069</v>
       </c>
@@ -4599,8 +5147,16 @@
       <c r="J69" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L69">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1">
         <v>2070</v>
       </c>
@@ -4632,8 +5188,16 @@
       <c r="J70" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L70">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1">
         <v>2071</v>
       </c>
@@ -4665,8 +5229,16 @@
       <c r="J71" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L71">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1">
         <v>2072</v>
       </c>
@@ -4698,8 +5270,16 @@
       <c r="J72" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L72">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1">
         <v>2073</v>
       </c>
@@ -4731,8 +5311,16 @@
       <c r="J73" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L73">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1">
         <v>2074</v>
       </c>
@@ -4764,8 +5352,16 @@
       <c r="J74" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L74">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1">
         <v>2075</v>
       </c>
@@ -4797,8 +5393,16 @@
       <c r="J75" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L75">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1">
         <v>2076</v>
       </c>
@@ -4830,8 +5434,16 @@
       <c r="J76" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L76">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1">
         <v>2077</v>
       </c>
@@ -4863,8 +5475,16 @@
       <c r="J77" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L77">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1">
         <v>2078</v>
       </c>
@@ -4896,8 +5516,16 @@
       <c r="J78" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L78">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1">
         <v>2079</v>
       </c>
@@ -4929,8 +5557,16 @@
       <c r="J79" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L79">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1">
         <v>2080</v>
       </c>
@@ -4962,8 +5598,16 @@
       <c r="J80" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L80">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1">
         <v>2081</v>
       </c>
@@ -4995,8 +5639,16 @@
       <c r="J81" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L81">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1">
         <v>2082</v>
       </c>
@@ -5028,8 +5680,16 @@
       <c r="J82" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L82">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1">
         <v>2083</v>
       </c>
@@ -5061,8 +5721,16 @@
       <c r="J83" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L83">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1">
         <v>2084</v>
       </c>
@@ -5094,8 +5762,16 @@
       <c r="J84" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L84">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1">
         <v>2085</v>
       </c>
@@ -5127,8 +5803,16 @@
       <c r="J85" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L85">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1">
         <v>2086</v>
       </c>
@@ -5160,8 +5844,16 @@
       <c r="J86" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L86">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1">
         <v>2087</v>
       </c>
@@ -5193,8 +5885,16 @@
       <c r="J87" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L87">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1">
         <v>2088</v>
       </c>
@@ -5226,8 +5926,16 @@
       <c r="J88" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L88">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1">
         <v>2089</v>
       </c>
@@ -5259,8 +5967,16 @@
       <c r="J89" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L89">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1">
         <v>2090</v>
       </c>
@@ -5292,8 +6008,16 @@
       <c r="J90" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L90">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1">
         <v>2091</v>
       </c>
@@ -5325,8 +6049,16 @@
       <c r="J91" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L91">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1">
         <v>2092</v>
       </c>
@@ -5358,8 +6090,16 @@
       <c r="J92" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L92">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1">
         <v>2093</v>
       </c>
@@ -5391,8 +6131,16 @@
       <c r="J93" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L93">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1">
         <v>2094</v>
       </c>
@@ -5424,8 +6172,16 @@
       <c r="J94" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L94">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1">
         <v>2095</v>
       </c>
@@ -5457,8 +6213,16 @@
       <c r="J95" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L95">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1">
         <v>2096</v>
       </c>
@@ -5490,8 +6254,16 @@
       <c r="J96" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L96">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1">
         <v>2097</v>
       </c>
@@ -5523,8 +6295,16 @@
       <c r="J97" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L97">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1">
         <v>2098</v>
       </c>
@@ -5556,8 +6336,16 @@
       <c r="J98" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L98">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1">
         <v>2099</v>
       </c>
@@ -5589,8 +6377,16 @@
       <c r="J99" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L99">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1">
         <v>2100</v>
       </c>
@@ -5622,8 +6418,16 @@
       <c r="J100" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L100">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1">
         <v>2101</v>
       </c>
@@ -5655,8 +6459,16 @@
       <c r="J101" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L101">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1">
         <v>2102</v>
       </c>
@@ -5688,8 +6500,16 @@
       <c r="J102" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L102">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1">
         <v>2103</v>
       </c>
@@ -5721,8 +6541,16 @@
       <c r="J103" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L103">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1">
         <v>2104</v>
       </c>
@@ -5754,8 +6582,16 @@
       <c r="J104" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L104">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="1">
         <v>2105</v>
       </c>
@@ -5787,8 +6623,16 @@
       <c r="J105" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L105">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="1">
         <v>2106</v>
       </c>
@@ -5820,8 +6664,16 @@
       <c r="J106" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L106">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="1">
         <v>2107</v>
       </c>
@@ -5853,8 +6705,16 @@
       <c r="J107" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L107">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="1">
         <v>2108</v>
       </c>
@@ -5886,8 +6746,16 @@
       <c r="J108" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L108">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="1">
         <v>2109</v>
       </c>
@@ -5919,8 +6787,16 @@
       <c r="J109" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L109">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="1">
         <v>2110</v>
       </c>
@@ -5952,8 +6828,16 @@
       <c r="J110" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L110">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="1">
         <v>2111</v>
       </c>
@@ -5985,8 +6869,16 @@
       <c r="J111" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L111">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="1">
         <v>2112</v>
       </c>
@@ -6018,8 +6910,16 @@
       <c r="J112" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L112">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="1">
         <v>2113</v>
       </c>
@@ -6051,8 +6951,16 @@
       <c r="J113" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L113">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="1">
         <v>2114</v>
       </c>
@@ -6084,8 +6992,16 @@
       <c r="J114" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L114">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="1">
         <v>2115</v>
       </c>
@@ -6117,8 +7033,16 @@
       <c r="J115" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L115">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="1">
         <v>2116</v>
       </c>
@@ -6150,8 +7074,16 @@
       <c r="J116" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L116">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="1">
         <v>2117</v>
       </c>
@@ -6183,8 +7115,16 @@
       <c r="J117" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L117">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="1">
         <v>2118</v>
       </c>
@@ -6216,8 +7156,16 @@
       <c r="J118" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L118">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="1">
         <v>2119</v>
       </c>
@@ -6249,8 +7197,16 @@
       <c r="J119" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L119">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="1">
         <v>2120</v>
       </c>
@@ -6282,8 +7238,16 @@
       <c r="J120" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L120">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="1">
         <v>2121</v>
       </c>
@@ -6315,8 +7279,16 @@
       <c r="J121" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L121">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="1">
         <v>2122</v>
       </c>
@@ -6348,8 +7320,16 @@
       <c r="J122" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L122">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="1">
         <v>2123</v>
       </c>
@@ -6381,8 +7361,16 @@
       <c r="J123" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L123">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="1">
         <v>2124</v>
       </c>
@@ -6414,8 +7402,16 @@
       <c r="J124" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L124">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="1">
         <v>2125</v>
       </c>
@@ -6447,8 +7443,16 @@
       <c r="J125" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L125">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="1">
         <v>2126</v>
       </c>
@@ -6480,8 +7484,16 @@
       <c r="J126" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L126">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="1">
         <v>2127</v>
       </c>
@@ -6513,8 +7525,16 @@
       <c r="J127" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L127">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="1">
         <v>2128</v>
       </c>
@@ -6546,8 +7566,16 @@
       <c r="J128" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L128">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="1">
         <v>2129</v>
       </c>
@@ -6579,8 +7607,16 @@
       <c r="J129" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L129">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="1">
         <v>2130</v>
       </c>
@@ -6612,8 +7648,16 @@
       <c r="J130" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L130">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="1">
         <v>2131</v>
       </c>
@@ -6645,8 +7689,16 @@
       <c r="J131" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L131">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="1">
         <v>2132</v>
       </c>
@@ -6678,8 +7730,16 @@
       <c r="J132" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L132">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="1">
         <v>2133</v>
       </c>
@@ -6711,8 +7771,16 @@
       <c r="J133" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L133">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="1">
         <v>2134</v>
       </c>
@@ -6744,8 +7812,16 @@
       <c r="J134" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L134">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="1">
         <v>2135</v>
       </c>
@@ -6777,8 +7853,16 @@
       <c r="J135" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L135">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="1">
         <v>2136</v>
       </c>
@@ -6810,8 +7894,16 @@
       <c r="J136" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L136">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="1">
         <v>2137</v>
       </c>
@@ -6843,8 +7935,16 @@
       <c r="J137" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L137">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="1">
         <v>2138</v>
       </c>
@@ -6876,8 +7976,16 @@
       <c r="J138" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L138">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="1">
         <v>2139</v>
       </c>
@@ -6909,8 +8017,16 @@
       <c r="J139" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L139">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="1">
         <v>2140</v>
       </c>
@@ -6942,8 +8058,16 @@
       <c r="J140" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L140">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="1">
         <v>2141</v>
       </c>
@@ -6975,8 +8099,16 @@
       <c r="J141" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L141">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="1">
         <v>2142</v>
       </c>
@@ -7008,8 +8140,16 @@
       <c r="J142" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L142">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="1">
         <v>2143</v>
       </c>
@@ -7041,8 +8181,16 @@
       <c r="J143" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L143">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="1">
         <v>2144</v>
       </c>
@@ -7074,8 +8222,16 @@
       <c r="J144" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L144">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="1">
         <v>2145</v>
       </c>
@@ -7107,8 +8263,16 @@
       <c r="J145" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L145">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="1">
         <v>2146</v>
       </c>
@@ -7140,8 +8304,16 @@
       <c r="J146" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L146">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="1">
         <v>2147</v>
       </c>
@@ -7173,8 +8345,16 @@
       <c r="J147" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L147">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="1">
         <v>2148</v>
       </c>
@@ -7206,8 +8386,16 @@
       <c r="J148" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L148">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="1">
         <v>2149</v>
       </c>
@@ -7239,8 +8427,16 @@
       <c r="J149" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L149">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="1">
         <v>2150</v>
       </c>
@@ -7272,8 +8468,16 @@
       <c r="J150" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L150">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="1">
         <v>2151</v>
       </c>
@@ -7305,8 +8509,16 @@
       <c r="J151" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L151">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="1">
         <v>2152</v>
       </c>
@@ -7338,8 +8550,16 @@
       <c r="J152" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L152">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" s="1">
         <v>2153</v>
       </c>
@@ -7371,8 +8591,16 @@
       <c r="J153" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L153">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" s="1">
         <v>2154</v>
       </c>
@@ -7404,8 +8632,16 @@
       <c r="J154" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L154">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" s="1">
         <v>2155</v>
       </c>
@@ -7437,8 +8673,16 @@
       <c r="J155" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L155">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" s="1">
         <v>2156</v>
       </c>
@@ -7470,8 +8714,16 @@
       <c r="J156" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L156">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" s="1">
         <v>2157</v>
       </c>
@@ -7503,8 +8755,16 @@
       <c r="J157" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L157">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" s="1">
         <v>2158</v>
       </c>
@@ -7536,8 +8796,16 @@
       <c r="J158" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L158">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="1">
         <v>2159</v>
       </c>
@@ -7569,8 +8837,16 @@
       <c r="J159" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L159">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="1">
         <v>2160</v>
       </c>
@@ -7602,8 +8878,16 @@
       <c r="J160" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L160">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" s="1">
         <v>2161</v>
       </c>
@@ -7635,8 +8919,16 @@
       <c r="J161" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L161">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" s="1">
         <v>2162</v>
       </c>
@@ -7668,8 +8960,16 @@
       <c r="J162" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L162">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" s="1">
         <v>2163</v>
       </c>
@@ -7701,8 +9001,16 @@
       <c r="J163" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L163">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" s="1">
         <v>2164</v>
       </c>
@@ -7734,8 +9042,16 @@
       <c r="J164" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L164">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" s="1">
         <v>2165</v>
       </c>
@@ -7767,8 +9083,16 @@
       <c r="J165" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L165">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" s="1">
         <v>2166</v>
       </c>
@@ -7800,8 +9124,16 @@
       <c r="J166" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L166">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="1">
         <v>2167</v>
       </c>
@@ -7833,8 +9165,16 @@
       <c r="J167" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L167">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="1">
         <v>2168</v>
       </c>
@@ -7866,8 +9206,16 @@
       <c r="J168" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L168">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" s="1">
         <v>2169</v>
       </c>
@@ -7899,8 +9247,16 @@
       <c r="J169" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L169">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="1">
         <v>2170</v>
       </c>
@@ -7932,8 +9288,16 @@
       <c r="J170" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L170">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="1">
         <v>2171</v>
       </c>
@@ -7965,8 +9329,16 @@
       <c r="J171" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L171">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" s="1">
         <v>2172</v>
       </c>
@@ -7998,8 +9370,16 @@
       <c r="J172" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L172">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" s="1">
         <v>2173</v>
       </c>
@@ -8031,8 +9411,16 @@
       <c r="J173" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L173">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" s="1">
         <v>2174</v>
       </c>
@@ -8064,8 +9452,16 @@
       <c r="J174" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L174">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" s="1">
         <v>2175</v>
       </c>
@@ -8097,8 +9493,16 @@
       <c r="J175" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L175">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" s="1">
         <v>2176</v>
       </c>
@@ -8130,8 +9534,16 @@
       <c r="J176" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L176">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" s="1">
         <v>2177</v>
       </c>
@@ -8163,8 +9575,16 @@
       <c r="J177" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L177">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" s="1">
         <v>2178</v>
       </c>
@@ -8196,8 +9616,16 @@
       <c r="J178" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L178">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" s="1">
         <v>2179</v>
       </c>
@@ -8229,8 +9657,16 @@
       <c r="J179" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L179">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" s="1">
         <v>2180</v>
       </c>
@@ -8262,8 +9698,16 @@
       <c r="J180" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L180">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" s="1">
         <v>2181</v>
       </c>
@@ -8295,8 +9739,16 @@
       <c r="J181" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L181">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" s="1">
         <v>2182</v>
       </c>
@@ -8328,8 +9780,16 @@
       <c r="J182" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L182">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" s="1">
         <v>2183</v>
       </c>
@@ -8361,8 +9821,16 @@
       <c r="J183" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L183">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" s="1">
         <v>2184</v>
       </c>
@@ -8394,8 +9862,16 @@
       <c r="J184" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L184">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" s="1">
         <v>2185</v>
       </c>
@@ -8427,8 +9903,16 @@
       <c r="J185" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L185">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" s="1">
         <v>2186</v>
       </c>
@@ -8460,8 +9944,16 @@
       <c r="J186" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L186">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" s="1">
         <v>2187</v>
       </c>
@@ -8493,8 +9985,16 @@
       <c r="J187" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L187">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" s="1">
         <v>2188</v>
       </c>
@@ -8526,8 +10026,16 @@
       <c r="J188" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L188">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189" s="1">
         <v>2189</v>
       </c>
@@ -8559,8 +10067,16 @@
       <c r="J189" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L189">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" s="1">
         <v>2190</v>
       </c>
@@ -8592,8 +10108,16 @@
       <c r="J190" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L190">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" s="1">
         <v>2191</v>
       </c>
@@ -8625,8 +10149,16 @@
       <c r="J191" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L191">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" s="1">
         <v>2192</v>
       </c>
@@ -8658,8 +10190,16 @@
       <c r="J192" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L192">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" s="1">
         <v>2193</v>
       </c>
@@ -8691,8 +10231,16 @@
       <c r="J193" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L193">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" s="1">
         <v>2194</v>
       </c>
@@ -8724,8 +10272,16 @@
       <c r="J194" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L194">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" s="1">
         <v>2195</v>
       </c>
@@ -8757,8 +10313,16 @@
       <c r="J195" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L195">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" s="1">
         <v>2196</v>
       </c>
@@ -8790,8 +10354,16 @@
       <c r="J196" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L196">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197" s="1">
         <v>2197</v>
       </c>
@@ -8823,8 +10395,16 @@
       <c r="J197" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L197">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198" s="1">
         <v>2198</v>
       </c>
@@ -8856,8 +10436,16 @@
       <c r="J198" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L198">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199" s="1">
         <v>2199</v>
       </c>
@@ -8889,8 +10477,16 @@
       <c r="J199" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L199">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200" s="1">
         <v>2200</v>
       </c>
@@ -8922,8 +10518,16 @@
       <c r="J200" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L200">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201" s="1">
         <v>2201</v>
       </c>
@@ -8955,8 +10559,16 @@
       <c r="J201" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L201">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" s="1">
         <v>2202</v>
       </c>
@@ -8988,8 +10600,16 @@
       <c r="J202" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L202">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203" s="1">
         <v>2203</v>
       </c>
@@ -9021,8 +10641,16 @@
       <c r="J203" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L203">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" s="1">
         <v>2204</v>
       </c>
@@ -9054,8 +10682,16 @@
       <c r="J204" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L204">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" s="1">
         <v>2205</v>
       </c>
@@ -9087,8 +10723,16 @@
       <c r="J205" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L205">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206" s="1">
         <v>2206</v>
       </c>
@@ -9120,8 +10764,16 @@
       <c r="J206" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L206">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207" s="1">
         <v>2207</v>
       </c>
@@ -9153,8 +10805,16 @@
       <c r="J207" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L207">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" s="1">
         <v>2208</v>
       </c>
@@ -9186,8 +10846,16 @@
       <c r="J208" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L208">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209" s="1">
         <v>2209</v>
       </c>
@@ -9219,8 +10887,16 @@
       <c r="J209" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L209">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210" s="1">
         <v>2210</v>
       </c>
@@ -9252,8 +10928,16 @@
       <c r="J210" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L210">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211" s="1">
         <v>2211</v>
       </c>
@@ -9285,8 +10969,16 @@
       <c r="J211" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L211">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212" s="1">
         <v>2212</v>
       </c>
@@ -9318,8 +11010,16 @@
       <c r="J212" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L212">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213" s="1">
         <v>2213</v>
       </c>
@@ -9351,8 +11051,16 @@
       <c r="J213" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L213">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214" s="1">
         <v>2214</v>
       </c>
@@ -9384,8 +11092,16 @@
       <c r="J214" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L214">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215" s="1">
         <v>2215</v>
       </c>
@@ -9417,8 +11133,16 @@
       <c r="J215" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L215">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216" s="1">
         <v>2216</v>
       </c>
@@ -9450,8 +11174,16 @@
       <c r="J216" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L216">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217" s="1">
         <v>2217</v>
       </c>
@@ -9483,8 +11215,16 @@
       <c r="J217" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L217">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218" s="1">
         <v>2218</v>
       </c>
@@ -9516,8 +11256,16 @@
       <c r="J218" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L218">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219" s="1">
         <v>2219</v>
       </c>
@@ -9549,8 +11297,16 @@
       <c r="J219" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L219">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220" s="1">
         <v>2220</v>
       </c>
@@ -9582,8 +11338,16 @@
       <c r="J220" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L220">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221" s="1">
         <v>2221</v>
       </c>
@@ -9615,8 +11379,16 @@
       <c r="J221" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L221">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
       <c r="A222" s="1">
         <v>2222</v>
       </c>
@@ -9648,8 +11420,16 @@
       <c r="J222" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L222">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223" s="1">
         <v>2223</v>
       </c>
@@ -9681,8 +11461,16 @@
       <c r="J223" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L223">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
       <c r="A224" s="1">
         <v>2224</v>
       </c>
@@ -9714,8 +11502,16 @@
       <c r="J224" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L224">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
       <c r="A225" s="1">
         <v>2225</v>
       </c>
@@ -9747,8 +11543,16 @@
       <c r="J225" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L225">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226" s="1">
         <v>2226</v>
       </c>
@@ -9780,8 +11584,16 @@
       <c r="J226" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L226">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227" s="1">
         <v>2227</v>
       </c>
@@ -9813,8 +11625,16 @@
       <c r="J227" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L227">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228" s="1">
         <v>2228</v>
       </c>
@@ -9846,8 +11666,16 @@
       <c r="J228" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L228">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229" s="1">
         <v>2229</v>
       </c>
@@ -9879,8 +11707,16 @@
       <c r="J229" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L229">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230" s="1">
         <v>2230</v>
       </c>
@@ -9912,8 +11748,16 @@
       <c r="J230" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L230">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
       <c r="A231" s="1">
         <v>2231</v>
       </c>
@@ -9945,8 +11789,16 @@
       <c r="J231" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L231">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232" s="1">
         <v>2232</v>
       </c>
@@ -9978,8 +11830,16 @@
       <c r="J232" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L232">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233" s="1">
         <v>2233</v>
       </c>
@@ -10011,8 +11871,16 @@
       <c r="J233" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L233">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234" s="1">
         <v>2234</v>
       </c>
@@ -10044,8 +11912,16 @@
       <c r="J234" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L234">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235" s="1">
         <v>2235</v>
       </c>
@@ -10077,8 +11953,16 @@
       <c r="J235" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L235">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
       <c r="A236" s="1">
         <v>2236</v>
       </c>
@@ -10110,8 +11994,16 @@
       <c r="J236" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L236">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
       <c r="A237" s="1">
         <v>2237</v>
       </c>
@@ -10143,8 +12035,16 @@
       <c r="J237" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L237">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238" s="1">
         <v>2238</v>
       </c>
@@ -10176,8 +12076,16 @@
       <c r="J238" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L238">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
       <c r="A239" s="1">
         <v>2239</v>
       </c>
@@ -10209,8 +12117,16 @@
       <c r="J239" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L239">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
       <c r="A240" s="1">
         <v>2240</v>
       </c>
@@ -10242,8 +12158,16 @@
       <c r="J240" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L240">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
       <c r="A241" s="1">
         <v>2241</v>
       </c>
@@ -10275,8 +12199,16 @@
       <c r="J241" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L241">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242" s="1">
         <v>2242</v>
       </c>
@@ -10308,8 +12240,16 @@
       <c r="J242" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L242">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
       <c r="A243" s="1">
         <v>2243</v>
       </c>
@@ -10341,8 +12281,16 @@
       <c r="J243" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L243">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
       <c r="A244" s="1">
         <v>2244</v>
       </c>
@@ -10374,8 +12322,16 @@
       <c r="J244" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L244">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
       <c r="A245" s="1">
         <v>2245</v>
       </c>
@@ -10407,8 +12363,16 @@
       <c r="J245" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L245">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12">
       <c r="A246" s="1">
         <v>2246</v>
       </c>
@@ -10440,8 +12404,16 @@
       <c r="J246" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L246">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12">
       <c r="A247" s="1">
         <v>2247</v>
       </c>
@@ -10473,8 +12445,16 @@
       <c r="J247" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L247">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
       <c r="A248" s="1">
         <v>2248</v>
       </c>
@@ -10506,8 +12486,16 @@
       <c r="J248" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L248">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
       <c r="A249" s="1">
         <v>2249</v>
       </c>
@@ -10539,8 +12527,16 @@
       <c r="J249" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L249">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250" s="1">
         <v>2250</v>
       </c>
@@ -10572,8 +12568,16 @@
       <c r="J250" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L250">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
       <c r="A251" s="1">
         <v>2251</v>
       </c>
@@ -10605,8 +12609,16 @@
       <c r="J251" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L251">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
       <c r="A252" s="1">
         <v>2252</v>
       </c>
@@ -10638,8 +12650,16 @@
       <c r="J252" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L252">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
       <c r="A253" s="1">
         <v>2253</v>
       </c>
@@ -10671,8 +12691,16 @@
       <c r="J253" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L253">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
       <c r="A254" s="1">
         <v>2254</v>
       </c>
@@ -10704,8 +12732,16 @@
       <c r="J254" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L254">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
       <c r="A255" s="1">
         <v>2255</v>
       </c>
@@ -10737,8 +12773,16 @@
       <c r="J255" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L255">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
       <c r="A256" s="1">
         <v>2256</v>
       </c>
@@ -10770,8 +12814,16 @@
       <c r="J256" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L256">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
       <c r="A257" s="1">
         <v>2257</v>
       </c>
@@ -10803,8 +12855,16 @@
       <c r="J257" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L257">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12">
       <c r="A258" s="1">
         <v>2258</v>
       </c>
@@ -10836,8 +12896,16 @@
       <c r="J258" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L258">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12">
       <c r="A259" s="1">
         <v>2259</v>
       </c>
@@ -10869,8 +12937,16 @@
       <c r="J259" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L259">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12">
       <c r="A260" s="1">
         <v>2260</v>
       </c>
@@ -10902,8 +12978,16 @@
       <c r="J260" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L260">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12">
       <c r="A261" s="1">
         <v>2261</v>
       </c>
@@ -10935,8 +13019,16 @@
       <c r="J261" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L261">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12">
       <c r="A262" s="1">
         <v>2262</v>
       </c>
@@ -10968,8 +13060,16 @@
       <c r="J262" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L262">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12">
       <c r="A263" s="1">
         <v>2263</v>
       </c>
@@ -11001,8 +13101,16 @@
       <c r="J263" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L263">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12">
       <c r="A264" s="1">
         <v>2264</v>
       </c>
@@ -11034,8 +13142,16 @@
       <c r="J264" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L264">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12">
       <c r="A265" s="1">
         <v>2265</v>
       </c>
@@ -11067,8 +13183,16 @@
       <c r="J265" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L265">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12">
       <c r="A266" s="1">
         <v>2266</v>
       </c>
@@ -11100,8 +13224,16 @@
       <c r="J266" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L266">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12">
       <c r="A267" s="1">
         <v>2267</v>
       </c>
@@ -11133,8 +13265,16 @@
       <c r="J267" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L267">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12">
       <c r="A268" s="1">
         <v>2268</v>
       </c>
@@ -11166,8 +13306,16 @@
       <c r="J268" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L268">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12">
       <c r="A269" s="1">
         <v>2269</v>
       </c>
@@ -11199,8 +13347,16 @@
       <c r="J269" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L269">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12">
       <c r="A270" s="1">
         <v>2270</v>
       </c>
@@ -11232,8 +13388,16 @@
       <c r="J270" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L270">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12">
       <c r="A271" s="1">
         <v>2271</v>
       </c>
@@ -11265,8 +13429,16 @@
       <c r="J271" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L271">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12">
       <c r="A272" s="1">
         <v>2272</v>
       </c>
@@ -11298,8 +13470,16 @@
       <c r="J272" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L272">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12">
       <c r="A273" s="1">
         <v>2273</v>
       </c>
@@ -11331,8 +13511,16 @@
       <c r="J273" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L273">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12">
       <c r="A274" s="1">
         <v>2274</v>
       </c>
@@ -11364,8 +13552,16 @@
       <c r="J274" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L274">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12">
       <c r="A275" s="1">
         <v>2275</v>
       </c>
@@ -11397,8 +13593,16 @@
       <c r="J275" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L275">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12">
       <c r="A276" s="1">
         <v>2276</v>
       </c>
@@ -11430,8 +13634,16 @@
       <c r="J276" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L276">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12">
       <c r="A277" s="1">
         <v>2277</v>
       </c>
@@ -11463,8 +13675,16 @@
       <c r="J277" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L277">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12">
       <c r="A278" s="1">
         <v>2278</v>
       </c>
@@ -11496,8 +13716,16 @@
       <c r="J278" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L278">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12">
       <c r="A279" s="1">
         <v>2279</v>
       </c>
@@ -11529,8 +13757,16 @@
       <c r="J279" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L279">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12">
       <c r="A280" s="1">
         <v>2280</v>
       </c>
@@ -11562,8 +13798,16 @@
       <c r="J280" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L280">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12">
       <c r="A281" s="1">
         <v>2281</v>
       </c>
@@ -11595,8 +13839,16 @@
       <c r="J281" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L281">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12">
       <c r="A282" s="1">
         <v>2282</v>
       </c>
@@ -11628,8 +13880,16 @@
       <c r="J282" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L282">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12">
       <c r="A283" s="1">
         <v>2283</v>
       </c>
@@ -11661,8 +13921,16 @@
       <c r="J283" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L283">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12">
       <c r="A284" s="1">
         <v>2284</v>
       </c>
@@ -11694,8 +13962,16 @@
       <c r="J284" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L284">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12">
       <c r="A285" s="1">
         <v>2285</v>
       </c>
@@ -11727,8 +14003,16 @@
       <c r="J285" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L285">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12">
       <c r="A286" s="1">
         <v>2286</v>
       </c>
@@ -11760,8 +14044,16 @@
       <c r="J286" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L286">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12">
       <c r="A287" s="1">
         <v>2287</v>
       </c>
@@ -11793,8 +14085,16 @@
       <c r="J287" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L287">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12">
       <c r="A288" s="1">
         <v>2288</v>
       </c>
@@ -11826,8 +14126,16 @@
       <c r="J288" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L288">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12">
       <c r="A289" s="1">
         <v>2289</v>
       </c>
@@ -11859,8 +14167,16 @@
       <c r="J289" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L289">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12">
       <c r="A290" s="1">
         <v>2290</v>
       </c>
@@ -11892,8 +14208,16 @@
       <c r="J290" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L290">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12">
       <c r="A291" s="1">
         <v>2291</v>
       </c>
@@ -11925,8 +14249,16 @@
       <c r="J291" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L291">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12">
       <c r="A292" s="1">
         <v>2292</v>
       </c>
@@ -11958,8 +14290,16 @@
       <c r="J292" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L292">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12">
       <c r="A293" s="1">
         <v>2293</v>
       </c>
@@ -11991,8 +14331,16 @@
       <c r="J293" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L293">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12">
       <c r="A294" s="1">
         <v>2294</v>
       </c>
@@ -12024,8 +14372,16 @@
       <c r="J294" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L294">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12">
       <c r="A295" s="1">
         <v>2295</v>
       </c>
@@ -12057,8 +14413,16 @@
       <c r="J295" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L295">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12">
       <c r="A296" s="1">
         <v>2296</v>
       </c>
@@ -12090,8 +14454,16 @@
       <c r="J296" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L296">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12">
       <c r="A297" s="1">
         <v>2297</v>
       </c>
@@ -12123,8 +14495,16 @@
       <c r="J297" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L297">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12">
       <c r="A298" s="1">
         <v>2298</v>
       </c>
@@ -12156,8 +14536,16 @@
       <c r="J298" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L298">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12">
       <c r="A299" s="1">
         <v>2299</v>
       </c>
@@ -12189,8 +14577,16 @@
       <c r="J299" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L299">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12">
       <c r="A300" s="1">
         <v>2300</v>
       </c>
@@ -12222,8 +14618,16 @@
       <c r="J300" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L300">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12">
       <c r="A301" s="1">
         <v>2301</v>
       </c>
@@ -12255,8 +14659,16 @@
       <c r="J301" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L301">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12">
       <c r="A302" s="1">
         <v>2302</v>
       </c>
@@ -12288,8 +14700,16 @@
       <c r="J302" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L302">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12">
       <c r="A303" s="1">
         <v>2303</v>
       </c>
@@ -12321,8 +14741,16 @@
       <c r="J303" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L303">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12">
       <c r="A304" s="1">
         <v>2304</v>
       </c>
@@ -12354,8 +14782,16 @@
       <c r="J304" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L304">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12">
       <c r="A305" s="1">
         <v>2305</v>
       </c>
@@ -12387,8 +14823,16 @@
       <c r="J305" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L305">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12">
       <c r="A306" s="1">
         <v>2306</v>
       </c>
@@ -12420,8 +14864,16 @@
       <c r="J306" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L306">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12">
       <c r="A307" s="1">
         <v>2307</v>
       </c>
@@ -12453,8 +14905,16 @@
       <c r="J307" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L307">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12">
       <c r="A308" s="1">
         <v>2308</v>
       </c>
@@ -12486,8 +14946,16 @@
       <c r="J308" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L308">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12">
       <c r="A309" s="1">
         <v>2309</v>
       </c>
@@ -12519,8 +14987,16 @@
       <c r="J309" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L309">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12">
       <c r="A310" s="1">
         <v>2310</v>
       </c>
@@ -12552,8 +15028,16 @@
       <c r="J310" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L310">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12">
       <c r="A311" s="1">
         <v>2311</v>
       </c>
@@ -12585,8 +15069,16 @@
       <c r="J311" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="312" spans="1:10">
+      <c r="K311">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L311">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12">
       <c r="A312" s="1">
         <v>2312</v>
       </c>
@@ -12618,8 +15110,16 @@
       <c r="J312" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="313" spans="1:10">
+      <c r="K312">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L312">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12">
       <c r="A313" s="1">
         <v>2313</v>
       </c>
@@ -12651,8 +15151,16 @@
       <c r="J313" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="314" spans="1:10">
+      <c r="K313">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L313">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12">
       <c r="A314" s="1">
         <v>2314</v>
       </c>
@@ -12684,8 +15192,16 @@
       <c r="J314" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="315" spans="1:10">
+      <c r="K314">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L314">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12">
       <c r="A315" s="1">
         <v>2315</v>
       </c>
@@ -12717,8 +15233,16 @@
       <c r="J315" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="316" spans="1:10">
+      <c r="K315">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L315">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12">
       <c r="A316" s="1">
         <v>2316</v>
       </c>
@@ -12750,8 +15274,16 @@
       <c r="J316" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="317" spans="1:10">
+      <c r="K316">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L316">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12">
       <c r="A317" s="1">
         <v>2317</v>
       </c>
@@ -12783,8 +15315,16 @@
       <c r="J317" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="318" spans="1:10">
+      <c r="K317">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L317">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12">
       <c r="A318" s="1">
         <v>2318</v>
       </c>
@@ -12816,8 +15356,16 @@
       <c r="J318" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="319" spans="1:10">
+      <c r="K318">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L318">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12">
       <c r="A319" s="1">
         <v>2319</v>
       </c>
@@ -12849,8 +15397,16 @@
       <c r="J319" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="320" spans="1:10">
+      <c r="K319">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L319">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12">
       <c r="A320" s="1">
         <v>2320</v>
       </c>
@@ -12882,8 +15438,16 @@
       <c r="J320" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="321" spans="1:10">
+      <c r="K320">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L320">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12">
       <c r="A321" s="1">
         <v>2321</v>
       </c>
@@ -12915,8 +15479,16 @@
       <c r="J321" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="322" spans="1:10">
+      <c r="K321">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L321">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12">
       <c r="A322" s="1">
         <v>2322</v>
       </c>
@@ -12948,8 +15520,16 @@
       <c r="J322" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="323" spans="1:10">
+      <c r="K322">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L322">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12">
       <c r="A323" s="1">
         <v>2323</v>
       </c>
@@ -12981,8 +15561,16 @@
       <c r="J323" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="324" spans="1:10">
+      <c r="K323">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L323">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12">
       <c r="A324" s="1">
         <v>2324</v>
       </c>
@@ -13014,8 +15602,16 @@
       <c r="J324" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="325" spans="1:10">
+      <c r="K324">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L324">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12">
       <c r="A325" s="1">
         <v>2325</v>
       </c>
@@ -13047,8 +15643,16 @@
       <c r="J325" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="326" spans="1:10">
+      <c r="K325">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L325">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12">
       <c r="A326" s="1">
         <v>2326</v>
       </c>
@@ -13080,8 +15684,16 @@
       <c r="J326" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="327" spans="1:10">
+      <c r="K326">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L326">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12">
       <c r="A327" s="1">
         <v>2327</v>
       </c>
@@ -13113,8 +15725,16 @@
       <c r="J327" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="328" spans="1:10">
+      <c r="K327">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L327">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12">
       <c r="A328" s="1">
         <v>2328</v>
       </c>
@@ -13146,8 +15766,16 @@
       <c r="J328" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="329" spans="1:10">
+      <c r="K328">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L328">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12">
       <c r="A329" s="1">
         <v>2329</v>
       </c>
@@ -13179,8 +15807,16 @@
       <c r="J329" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="330" spans="1:10">
+      <c r="K329">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L329">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12">
       <c r="A330" s="1">
         <v>2330</v>
       </c>
@@ -13212,8 +15848,16 @@
       <c r="J330" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="331" spans="1:10">
+      <c r="K330">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L330">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12">
       <c r="A331" s="1">
         <v>2331</v>
       </c>
@@ -13245,8 +15889,16 @@
       <c r="J331" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="332" spans="1:10">
+      <c r="K331">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L331">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12">
       <c r="A332" s="1">
         <v>2332</v>
       </c>
@@ -13278,8 +15930,16 @@
       <c r="J332" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="333" spans="1:10">
+      <c r="K332">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L332">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12">
       <c r="A333" s="1">
         <v>2333</v>
       </c>
@@ -13311,8 +15971,16 @@
       <c r="J333" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="334" spans="1:10">
+      <c r="K333">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L333">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12">
       <c r="A334" s="1">
         <v>2334</v>
       </c>
@@ -13344,8 +16012,16 @@
       <c r="J334" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="335" spans="1:10">
+      <c r="K334">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L334">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12">
       <c r="A335" s="1">
         <v>2335</v>
       </c>
@@ -13377,8 +16053,16 @@
       <c r="J335" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="336" spans="1:10">
+      <c r="K335">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L335">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12">
       <c r="A336" s="1">
         <v>2336</v>
       </c>
@@ -13410,8 +16094,16 @@
       <c r="J336" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="337" spans="1:10">
+      <c r="K336">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L336">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12">
       <c r="A337" s="1">
         <v>2337</v>
       </c>
@@ -13443,8 +16135,16 @@
       <c r="J337" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="338" spans="1:10">
+      <c r="K337">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L337">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12">
       <c r="A338" s="1">
         <v>2338</v>
       </c>
@@ -13476,8 +16176,16 @@
       <c r="J338" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="339" spans="1:10">
+      <c r="K338">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L338">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12">
       <c r="A339" s="1">
         <v>2339</v>
       </c>
@@ -13509,8 +16217,16 @@
       <c r="J339" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="340" spans="1:10">
+      <c r="K339">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L339">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12">
       <c r="A340" s="1">
         <v>2340</v>
       </c>
@@ -13542,8 +16258,16 @@
       <c r="J340" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="341" spans="1:10">
+      <c r="K340">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L340">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12">
       <c r="A341" s="1">
         <v>2341</v>
       </c>
@@ -13575,8 +16299,16 @@
       <c r="J341" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="342" spans="1:10">
+      <c r="K341">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L341">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12">
       <c r="A342" s="1">
         <v>2342</v>
       </c>
@@ -13608,8 +16340,16 @@
       <c r="J342" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="343" spans="1:10">
+      <c r="K342">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L342">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12">
       <c r="A343" s="1">
         <v>2343</v>
       </c>
@@ -13641,8 +16381,16 @@
       <c r="J343" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="344" spans="1:10">
+      <c r="K343">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L343">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12">
       <c r="A344" s="1">
         <v>2344</v>
       </c>
@@ -13674,8 +16422,16 @@
       <c r="J344" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="345" spans="1:10">
+      <c r="K344">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L344">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12">
       <c r="A345" s="1">
         <v>2345</v>
       </c>
@@ -13707,8 +16463,16 @@
       <c r="J345" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="346" spans="1:10">
+      <c r="K345">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L345">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12">
       <c r="A346" s="1">
         <v>2346</v>
       </c>
@@ -13740,8 +16504,16 @@
       <c r="J346" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="347" spans="1:10">
+      <c r="K346">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L346">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12">
       <c r="A347" s="1">
         <v>2347</v>
       </c>
@@ -13773,8 +16545,16 @@
       <c r="J347" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:10">
+      <c r="K347">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L347">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12">
       <c r="A348" s="1">
         <v>2348</v>
       </c>
@@ -13806,8 +16586,16 @@
       <c r="J348" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="349" spans="1:10">
+      <c r="K348">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L348">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12">
       <c r="A349" s="1">
         <v>2349</v>
       </c>
@@ -13839,8 +16627,16 @@
       <c r="J349" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="350" spans="1:10">
+      <c r="K349">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L349">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12">
       <c r="A350" s="1">
         <v>2350</v>
       </c>
@@ -13872,8 +16668,16 @@
       <c r="J350" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="351" spans="1:10">
+      <c r="K350">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L350">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12">
       <c r="A351" s="1">
         <v>2351</v>
       </c>
@@ -13905,8 +16709,16 @@
       <c r="J351" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="352" spans="1:10">
+      <c r="K351">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L351">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12">
       <c r="A352" s="1">
         <v>2352</v>
       </c>
@@ -13938,8 +16750,16 @@
       <c r="J352" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="353" spans="1:10">
+      <c r="K352">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L352">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12">
       <c r="A353" s="1">
         <v>2353</v>
       </c>
@@ -13971,8 +16791,16 @@
       <c r="J353" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="354" spans="1:10">
+      <c r="K353">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L353">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12">
       <c r="A354" s="1">
         <v>2354</v>
       </c>
@@ -14004,8 +16832,16 @@
       <c r="J354" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="355" spans="1:10">
+      <c r="K354">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L354">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12">
       <c r="A355" s="1">
         <v>2355</v>
       </c>
@@ -14037,8 +16873,16 @@
       <c r="J355" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="356" spans="1:10">
+      <c r="K355">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L355">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12">
       <c r="A356" s="1">
         <v>2356</v>
       </c>
@@ -14070,8 +16914,16 @@
       <c r="J356" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="357" spans="1:10">
+      <c r="K356">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L356">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12">
       <c r="A357" s="1">
         <v>2357</v>
       </c>
@@ -14103,8 +16955,16 @@
       <c r="J357" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="358" spans="1:10">
+      <c r="K357">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L357">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12">
       <c r="A358" s="1">
         <v>2358</v>
       </c>
@@ -14136,8 +16996,16 @@
       <c r="J358" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="359" spans="1:10">
+      <c r="K358">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L358">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12">
       <c r="A359" s="1">
         <v>2359</v>
       </c>
@@ -14169,8 +17037,16 @@
       <c r="J359" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="360" spans="1:10">
+      <c r="K359">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L359">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12">
       <c r="A360" s="1">
         <v>2360</v>
       </c>
@@ -14202,8 +17078,16 @@
       <c r="J360" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="361" spans="1:10">
+      <c r="K360">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L360">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12">
       <c r="A361" s="1">
         <v>2361</v>
       </c>
@@ -14235,8 +17119,16 @@
       <c r="J361" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="362" spans="1:10">
+      <c r="K361">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L361">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12">
       <c r="A362" s="1">
         <v>2362</v>
       </c>
@@ -14268,8 +17160,16 @@
       <c r="J362" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="363" spans="1:10">
+      <c r="K362">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L362">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12">
       <c r="A363" s="1">
         <v>2363</v>
       </c>
@@ -14301,8 +17201,16 @@
       <c r="J363" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="364" spans="1:10">
+      <c r="K363">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L363">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12">
       <c r="A364" s="1">
         <v>2364</v>
       </c>
@@ -14334,8 +17242,16 @@
       <c r="J364" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:10">
+      <c r="K364">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L364">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12">
       <c r="A365" s="1">
         <v>2365</v>
       </c>
@@ -14367,8 +17283,16 @@
       <c r="J365" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="366" spans="1:10">
+      <c r="K365">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L365">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12">
       <c r="A366" s="1">
         <v>2366</v>
       </c>
@@ -14400,8 +17324,16 @@
       <c r="J366" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="367" spans="1:10">
+      <c r="K366">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L366">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12">
       <c r="A367" s="1">
         <v>2367</v>
       </c>
@@ -14433,8 +17365,16 @@
       <c r="J367" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="368" spans="1:10">
+      <c r="K367">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L367">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12">
       <c r="A368" s="1">
         <v>2368</v>
       </c>
@@ -14466,8 +17406,16 @@
       <c r="J368" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="369" spans="1:10">
+      <c r="K368">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L368">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12">
       <c r="A369" s="1">
         <v>2369</v>
       </c>
@@ -14499,8 +17447,16 @@
       <c r="J369" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="370" spans="1:10">
+      <c r="K369">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L369">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12">
       <c r="A370" s="1">
         <v>2370</v>
       </c>
@@ -14532,8 +17488,16 @@
       <c r="J370" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="371" spans="1:10">
+      <c r="K370">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L370">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12">
       <c r="A371" s="1">
         <v>2371</v>
       </c>
@@ -14565,8 +17529,16 @@
       <c r="J371" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="372" spans="1:10">
+      <c r="K371">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L371">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12">
       <c r="A372" s="1">
         <v>2372</v>
       </c>
@@ -14598,8 +17570,16 @@
       <c r="J372" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="373" spans="1:10">
+      <c r="K372">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L372">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12">
       <c r="A373" s="1">
         <v>2373</v>
       </c>
@@ -14631,8 +17611,16 @@
       <c r="J373" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="374" spans="1:10">
+      <c r="K373">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L373">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12">
       <c r="A374" s="1">
         <v>2374</v>
       </c>
@@ -14664,8 +17652,16 @@
       <c r="J374" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="375" spans="1:10">
+      <c r="K374">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L374">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12">
       <c r="A375" s="1">
         <v>2375</v>
       </c>
@@ -14697,8 +17693,16 @@
       <c r="J375" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="376" spans="1:10">
+      <c r="K375">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L375">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12">
       <c r="A376" s="1">
         <v>2376</v>
       </c>
@@ -14730,8 +17734,16 @@
       <c r="J376" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="377" spans="1:10">
+      <c r="K376">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L376">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12">
       <c r="A377" s="1">
         <v>2377</v>
       </c>
@@ -14763,8 +17775,16 @@
       <c r="J377" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="378" spans="1:10">
+      <c r="K377">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L377">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12">
       <c r="A378" s="1">
         <v>2378</v>
       </c>
@@ -14796,8 +17816,16 @@
       <c r="J378" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="379" spans="1:10">
+      <c r="K378">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L378">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12">
       <c r="A379" s="1">
         <v>2379</v>
       </c>
@@ -14829,8 +17857,16 @@
       <c r="J379" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="380" spans="1:10">
+      <c r="K379">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L379">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12">
       <c r="A380" s="1">
         <v>2380</v>
       </c>
@@ -14862,8 +17898,16 @@
       <c r="J380" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="381" spans="1:10">
+      <c r="K380">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L380">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12">
       <c r="A381" s="1">
         <v>2381</v>
       </c>
@@ -14895,8 +17939,16 @@
       <c r="J381" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="382" spans="1:10">
+      <c r="K381">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L381">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12">
       <c r="A382" s="1">
         <v>2382</v>
       </c>
@@ -14928,8 +17980,16 @@
       <c r="J382" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:10">
+      <c r="K382">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L382">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12">
       <c r="A383" s="1">
         <v>2383</v>
       </c>
@@ -14961,8 +18021,16 @@
       <c r="J383" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="384" spans="1:10">
+      <c r="K383">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L383">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12">
       <c r="A384" s="1">
         <v>2384</v>
       </c>
@@ -14994,8 +18062,16 @@
       <c r="J384" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="385" spans="1:10">
+      <c r="K384">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L384">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12">
       <c r="A385" s="1">
         <v>2385</v>
       </c>
@@ -15027,8 +18103,16 @@
       <c r="J385" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="386" spans="1:10">
+      <c r="K385">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L385">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12">
       <c r="A386" s="1">
         <v>2386</v>
       </c>
@@ -15060,8 +18144,16 @@
       <c r="J386" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="387" spans="1:10">
+      <c r="K386">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L386">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12">
       <c r="A387" s="1">
         <v>2387</v>
       </c>
@@ -15093,8 +18185,16 @@
       <c r="J387" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:10">
+      <c r="K387">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L387">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12">
       <c r="A388" s="1">
         <v>2388</v>
       </c>
@@ -15126,8 +18226,16 @@
       <c r="J388" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:10">
+      <c r="K388">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L388">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12">
       <c r="A389" s="1">
         <v>2389</v>
       </c>
@@ -15159,8 +18267,16 @@
       <c r="J389" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="390" spans="1:10">
+      <c r="K389">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L389">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12">
       <c r="A390" s="1">
         <v>2390</v>
       </c>
@@ -15192,8 +18308,16 @@
       <c r="J390" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="391" spans="1:10">
+      <c r="K390">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L390">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12">
       <c r="A391" s="1">
         <v>2391</v>
       </c>
@@ -15225,8 +18349,16 @@
       <c r="J391" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="392" spans="1:10">
+      <c r="K391">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L391">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12">
       <c r="A392" s="1">
         <v>2392</v>
       </c>
@@ -15258,8 +18390,16 @@
       <c r="J392" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="393" spans="1:10">
+      <c r="K392">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L392">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12">
       <c r="A393" s="1">
         <v>2393</v>
       </c>
@@ -15291,8 +18431,16 @@
       <c r="J393" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="394" spans="1:10">
+      <c r="K393">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L393">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12">
       <c r="A394" s="1">
         <v>2394</v>
       </c>
@@ -15324,8 +18472,16 @@
       <c r="J394" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="395" spans="1:10">
+      <c r="K394">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L394">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12">
       <c r="A395" s="1">
         <v>2395</v>
       </c>
@@ -15357,8 +18513,16 @@
       <c r="J395" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="396" spans="1:10">
+      <c r="K395">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L395">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12">
       <c r="A396" s="1">
         <v>2396</v>
       </c>
@@ -15390,8 +18554,16 @@
       <c r="J396" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="397" spans="1:10">
+      <c r="K396">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L396">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12">
       <c r="A397" s="1">
         <v>2397</v>
       </c>
@@ -15423,8 +18595,16 @@
       <c r="J397" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="398" spans="1:10">
+      <c r="K397">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L397">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12">
       <c r="A398" s="1">
         <v>2398</v>
       </c>
@@ -15456,8 +18636,16 @@
       <c r="J398" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:10">
+      <c r="K398">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L398">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12">
       <c r="A399" s="1">
         <v>2399</v>
       </c>
@@ -15489,8 +18677,16 @@
       <c r="J399" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="400" spans="1:10">
+      <c r="K399">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L399">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12">
       <c r="A400" s="1">
         <v>2400</v>
       </c>
@@ -15522,8 +18718,16 @@
       <c r="J400" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="401" spans="1:10">
+      <c r="K400">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L400">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12">
       <c r="A401" s="1">
         <v>2401</v>
       </c>
@@ -15555,8 +18759,16 @@
       <c r="J401" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="402" spans="1:10">
+      <c r="K401">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L401">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12">
       <c r="A402" s="1">
         <v>2402</v>
       </c>
@@ -15588,8 +18800,16 @@
       <c r="J402" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="403" spans="1:10">
+      <c r="K402">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L402">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12">
       <c r="A403" s="1">
         <v>2403</v>
       </c>
@@ -15621,8 +18841,16 @@
       <c r="J403" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="404" spans="1:10">
+      <c r="K403">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L403">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12">
       <c r="A404" s="1">
         <v>2404</v>
       </c>
@@ -15654,8 +18882,16 @@
       <c r="J404" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="405" spans="1:10">
+      <c r="K404">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L404">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12">
       <c r="A405" s="1">
         <v>2405</v>
       </c>
@@ -15687,8 +18923,16 @@
       <c r="J405" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="406" spans="1:10">
+      <c r="K405">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L405">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12">
       <c r="A406" s="1">
         <v>2406</v>
       </c>
@@ -15720,8 +18964,16 @@
       <c r="J406" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="407" spans="1:10">
+      <c r="K406">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L406">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12">
       <c r="A407" s="1">
         <v>2407</v>
       </c>
@@ -15753,8 +19005,16 @@
       <c r="J407" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="408" spans="1:10">
+      <c r="K407">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L407">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12">
       <c r="A408" s="1">
         <v>2408</v>
       </c>
@@ -15786,8 +19046,16 @@
       <c r="J408" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="409" spans="1:10">
+      <c r="K408">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L408">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12">
       <c r="A409" s="1">
         <v>2409</v>
       </c>
@@ -15819,8 +19087,16 @@
       <c r="J409" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="410" spans="1:10">
+      <c r="K409">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L409">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12">
       <c r="A410" s="1">
         <v>2410</v>
       </c>
@@ -15852,8 +19128,16 @@
       <c r="J410" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="411" spans="1:10">
+      <c r="K410">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L410">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12">
       <c r="A411" s="1">
         <v>2411</v>
       </c>
@@ -15885,8 +19169,16 @@
       <c r="J411" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="412" spans="1:10">
+      <c r="K411">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L411">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12">
       <c r="A412" s="1">
         <v>2412</v>
       </c>
@@ -15918,8 +19210,16 @@
       <c r="J412" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="413" spans="1:10">
+      <c r="K412">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2018</v>
+      </c>
+      <c r="L412">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12">
       <c r="A413" s="1">
         <v>2003</v>
       </c>
@@ -15951,8 +19251,16 @@
       <c r="J413" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="414" spans="1:10">
+      <c r="K413">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L413">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12">
       <c r="A414" s="1">
         <v>2004</v>
       </c>
@@ -15984,8 +19292,16 @@
       <c r="J414" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="415" spans="1:10">
+      <c r="K414">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L414">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12">
       <c r="A415" s="1">
         <v>2005</v>
       </c>
@@ -16017,8 +19333,16 @@
       <c r="J415" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="416" spans="1:10">
+      <c r="K415">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L415">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12">
       <c r="A416" s="1">
         <v>2006</v>
       </c>
@@ -16050,8 +19374,16 @@
       <c r="J416" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="417" spans="1:10">
+      <c r="K416">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L416">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12">
       <c r="A417" s="1">
         <v>2007</v>
       </c>
@@ -16083,8 +19415,16 @@
       <c r="J417" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="418" spans="1:10">
+      <c r="K417">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L417">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12">
       <c r="A418" s="1">
         <v>2008</v>
       </c>
@@ -16116,8 +19456,16 @@
       <c r="J418" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="419" spans="1:10">
+      <c r="K418">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L418">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12">
       <c r="A419" s="1">
         <v>2009</v>
       </c>
@@ -16149,8 +19497,16 @@
       <c r="J419" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="420" spans="1:10">
+      <c r="K419">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L419">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12">
       <c r="A420" s="1">
         <v>2010</v>
       </c>
@@ -16182,8 +19538,16 @@
       <c r="J420" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="421" spans="1:10">
+      <c r="K420">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L420">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12">
       <c r="A421" s="1">
         <v>2011</v>
       </c>
@@ -16215,8 +19579,16 @@
       <c r="J421" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="422" spans="1:10">
+      <c r="K421">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L421">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12">
       <c r="A422" s="1">
         <v>2012</v>
       </c>
@@ -16248,8 +19620,16 @@
       <c r="J422" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="423" spans="1:10">
+      <c r="K422">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L422">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12">
       <c r="A423" s="1">
         <v>2013</v>
       </c>
@@ -16281,8 +19661,16 @@
       <c r="J423" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="424" spans="1:10">
+      <c r="K423">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L423">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12">
       <c r="A424" s="1">
         <v>2014</v>
       </c>
@@ -16314,8 +19702,16 @@
       <c r="J424" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="425" spans="1:10">
+      <c r="K424">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L424">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12">
       <c r="A425" s="1">
         <v>2015</v>
       </c>
@@ -16347,8 +19743,16 @@
       <c r="J425" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="426" spans="1:10">
+      <c r="K425">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L425">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12">
       <c r="A426" s="1">
         <v>2016</v>
       </c>
@@ -16380,8 +19784,16 @@
       <c r="J426" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="427" spans="1:10">
+      <c r="K426">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L426">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12">
       <c r="A427" s="1">
         <v>2017</v>
       </c>
@@ -16413,8 +19825,16 @@
       <c r="J427" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="428" spans="1:10">
+      <c r="K427">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L427">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12">
       <c r="A428" s="1">
         <v>2018</v>
       </c>
@@ -16446,8 +19866,16 @@
       <c r="J428" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="429" spans="1:10">
+      <c r="K428">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L428">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12">
       <c r="A429" s="1">
         <v>2019</v>
       </c>
@@ -16479,8 +19907,16 @@
       <c r="J429" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="430" spans="1:10">
+      <c r="K429">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L429">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12">
       <c r="A430" s="1">
         <v>2020</v>
       </c>
@@ -16512,8 +19948,16 @@
       <c r="J430" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="431" spans="1:10">
+      <c r="K430">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L430">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12">
       <c r="A431" s="1">
         <v>2021</v>
       </c>
@@ -16545,8 +19989,16 @@
       <c r="J431" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="432" spans="1:10">
+      <c r="K431">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L431">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12">
       <c r="A432" s="1">
         <v>2022</v>
       </c>
@@ -16578,8 +20030,16 @@
       <c r="J432" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="433" spans="1:10">
+      <c r="K432">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L432">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12">
       <c r="A433" s="1">
         <v>2023</v>
       </c>
@@ -16611,8 +20071,16 @@
       <c r="J433" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="434" spans="1:10">
+      <c r="K433">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L433">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12">
       <c r="A434" s="1">
         <v>2024</v>
       </c>
@@ -16644,8 +20112,16 @@
       <c r="J434" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="435" spans="1:10">
+      <c r="K434">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L434">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12">
       <c r="A435" s="1">
         <v>2025</v>
       </c>
@@ -16677,8 +20153,16 @@
       <c r="J435" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="436" spans="1:10">
+      <c r="K435">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L435">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12">
       <c r="A436" s="1">
         <v>2026</v>
       </c>
@@ -16710,8 +20194,16 @@
       <c r="J436" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="437" spans="1:10">
+      <c r="K436">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L436">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12">
       <c r="A437" s="1">
         <v>2027</v>
       </c>
@@ -16743,8 +20235,16 @@
       <c r="J437" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="438" spans="1:10">
+      <c r="K437">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L437">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12">
       <c r="A438" s="1">
         <v>2028</v>
       </c>
@@ -16776,8 +20276,16 @@
       <c r="J438" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="439" spans="1:10">
+      <c r="K438">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L438">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12">
       <c r="A439" s="1">
         <v>2029</v>
       </c>
@@ -16809,8 +20317,16 @@
       <c r="J439" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="440" spans="1:10">
+      <c r="K439">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L439">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12">
       <c r="A440" s="1">
         <v>2030</v>
       </c>
@@ -16842,8 +20358,16 @@
       <c r="J440" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="441" spans="1:10">
+      <c r="K440">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L440">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12">
       <c r="A441" s="1">
         <v>2031</v>
       </c>
@@ -16875,8 +20399,16 @@
       <c r="J441" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="442" spans="1:10">
+      <c r="K441">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L441">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12">
       <c r="A442" s="1">
         <v>2032</v>
       </c>
@@ -16908,8 +20440,16 @@
       <c r="J442" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="443" spans="1:10">
+      <c r="K442">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L442">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12">
       <c r="A443" s="1">
         <v>2033</v>
       </c>
@@ -16941,8 +20481,16 @@
       <c r="J443" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="444" spans="1:10">
+      <c r="K443">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L443">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12">
       <c r="A444" s="1">
         <v>2034</v>
       </c>
@@ -16974,8 +20522,16 @@
       <c r="J444" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="445" spans="1:10">
+      <c r="K444">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L444">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
       <c r="A445" s="1">
         <v>2035</v>
       </c>
@@ -17007,8 +20563,16 @@
       <c r="J445" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="446" spans="1:10">
+      <c r="K445">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L445">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
       <c r="A446" s="1">
         <v>2036</v>
       </c>
@@ -17040,8 +20604,16 @@
       <c r="J446" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="447" spans="1:10">
+      <c r="K446">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L446">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12">
       <c r="A447" s="1">
         <v>2037</v>
       </c>
@@ -17073,8 +20645,16 @@
       <c r="J447" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="448" spans="1:10">
+      <c r="K447">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L447">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12">
       <c r="A448" s="1">
         <v>2038</v>
       </c>
@@ -17106,8 +20686,16 @@
       <c r="J448" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="449" spans="1:10">
+      <c r="K448">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L448">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12">
       <c r="A449" s="1">
         <v>2039</v>
       </c>
@@ -17139,8 +20727,16 @@
       <c r="J449" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="450" spans="1:10">
+      <c r="K449">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L449">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12">
       <c r="A450" s="1">
         <v>2040</v>
       </c>
@@ -17172,8 +20768,16 @@
       <c r="J450" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="451" spans="1:10">
+      <c r="K450">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L450">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12">
       <c r="A451" s="1">
         <v>2041</v>
       </c>
@@ -17205,8 +20809,16 @@
       <c r="J451" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="452" spans="1:10">
+      <c r="K451">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L451">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12">
       <c r="A452" s="1">
         <v>2042</v>
       </c>
@@ -17238,8 +20850,16 @@
       <c r="J452" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="453" spans="1:10">
+      <c r="K452">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L452">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12">
       <c r="A453" s="1">
         <v>2043</v>
       </c>
@@ -17271,8 +20891,16 @@
       <c r="J453" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="454" spans="1:10">
+      <c r="K453">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L453">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12">
       <c r="A454" s="1">
         <v>2044</v>
       </c>
@@ -17304,8 +20932,16 @@
       <c r="J454" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="455" spans="1:10">
+      <c r="K454">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L454">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12">
       <c r="A455" s="1">
         <v>2045</v>
       </c>
@@ -17337,8 +20973,16 @@
       <c r="J455" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="456" spans="1:10">
+      <c r="K455">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L455">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12">
       <c r="A456" s="1">
         <v>2046</v>
       </c>
@@ -17370,8 +21014,16 @@
       <c r="J456" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="457" spans="1:10">
+      <c r="K456">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L456">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12">
       <c r="A457" s="1">
         <v>2047</v>
       </c>
@@ -17403,8 +21055,16 @@
       <c r="J457" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="458" spans="1:10">
+      <c r="K457">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L457">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12">
       <c r="A458" s="1">
         <v>2048</v>
       </c>
@@ -17436,8 +21096,16 @@
       <c r="J458" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="459" spans="1:10">
+      <c r="K458">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L458">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12">
       <c r="A459" s="1">
         <v>2049</v>
       </c>
@@ -17469,8 +21137,16 @@
       <c r="J459" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="460" spans="1:10">
+      <c r="K459">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L459">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12">
       <c r="A460" s="1">
         <v>2050</v>
       </c>
@@ -17502,8 +21178,16 @@
       <c r="J460" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="461" spans="1:10">
+      <c r="K460">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L460">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12">
       <c r="A461" s="1">
         <v>2051</v>
       </c>
@@ -17535,8 +21219,16 @@
       <c r="J461" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="462" spans="1:10">
+      <c r="K461">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L461">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12">
       <c r="A462" s="1">
         <v>2052</v>
       </c>
@@ -17568,8 +21260,16 @@
       <c r="J462" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="463" spans="1:10">
+      <c r="K462">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L462">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12">
       <c r="A463" s="1">
         <v>2053</v>
       </c>
@@ -17601,8 +21301,16 @@
       <c r="J463" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="464" spans="1:10">
+      <c r="K463">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L463">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12">
       <c r="A464" s="1">
         <v>2054</v>
       </c>
@@ -17634,8 +21342,16 @@
       <c r="J464" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="465" spans="1:10">
+      <c r="K464">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L464">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12">
       <c r="A465" s="1">
         <v>2055</v>
       </c>
@@ -17667,8 +21383,16 @@
       <c r="J465" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="466" spans="1:10">
+      <c r="K465">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L465">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12">
       <c r="A466" s="1">
         <v>2056</v>
       </c>
@@ -17700,8 +21424,16 @@
       <c r="J466" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="467" spans="1:10">
+      <c r="K466">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L466">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12">
       <c r="A467" s="1">
         <v>2057</v>
       </c>
@@ -17733,8 +21465,16 @@
       <c r="J467" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="468" spans="1:10">
+      <c r="K467">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L467">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12">
       <c r="A468" s="1">
         <v>2058</v>
       </c>
@@ -17766,8 +21506,16 @@
       <c r="J468" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="469" spans="1:10">
+      <c r="K468">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L468">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12">
       <c r="A469" s="1">
         <v>2059</v>
       </c>
@@ -17799,8 +21547,16 @@
       <c r="J469" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="470" spans="1:10">
+      <c r="K469">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L469">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12">
       <c r="A470" s="1">
         <v>2060</v>
       </c>
@@ -17832,8 +21588,16 @@
       <c r="J470" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="471" spans="1:10">
+      <c r="K470">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L470">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12">
       <c r="A471" s="1">
         <v>2061</v>
       </c>
@@ -17865,8 +21629,16 @@
       <c r="J471" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="472" spans="1:10">
+      <c r="K471">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L471">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12">
       <c r="A472" s="1">
         <v>2062</v>
       </c>
@@ -17898,8 +21670,16 @@
       <c r="J472" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="473" spans="1:10">
+      <c r="K472">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L472">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12">
       <c r="A473" s="1">
         <v>2063</v>
       </c>
@@ -17931,8 +21711,16 @@
       <c r="J473" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="474" spans="1:10">
+      <c r="K473">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L473">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12">
       <c r="A474" s="1">
         <v>2064</v>
       </c>
@@ -17964,8 +21752,16 @@
       <c r="J474" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="475" spans="1:10">
+      <c r="K474">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L474">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12">
       <c r="A475" s="1">
         <v>2065</v>
       </c>
@@ -17997,8 +21793,16 @@
       <c r="J475" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="476" spans="1:10">
+      <c r="K475">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L475">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12">
       <c r="A476" s="1">
         <v>2066</v>
       </c>
@@ -18030,8 +21834,16 @@
       <c r="J476" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="477" spans="1:10">
+      <c r="K476">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L476">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12">
       <c r="A477" s="1">
         <v>2067</v>
       </c>
@@ -18063,10 +21875,18 @@
       <c r="J477" s="1">
         <v>5</v>
       </c>
+      <c r="K477">
+        <f>YEAR(Reservas[[#This Row],[Data]])</f>
+        <v>2019</v>
+      </c>
+      <c r="L477">
+        <f>MONTH(Reservas[[#This Row],[Data]])</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18152,27 +21972,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="33" t="s">
@@ -18849,7 +22669,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18860,26 +22680,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
     </row>
     <row r="9" spans="1:18">
       <c r="P9" s="28"/>

--- a/dashboards_II.xlsx
+++ b/dashboards_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Git/04. DashBoard Especialista/02.Dashboard 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3421F1DA-5902-47DB-8CF4-EA0047637F4F}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30F779A2-12AD-458E-BC43-A4BCA92671B7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
   </bookViews>
@@ -788,15 +788,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaRange="ListaEstados" sel="0" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$I$6" fmlaRange="ListaEstados" sel="5" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="5" dropStyle="combo" dx="16" fmlaRange="ListaAnos" sel="0" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="5" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$K$6" fmlaRange="ListaAnos" sel="2" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="16" fmlaRange="ListaMeses" sel="0" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$L$5" fmlaRange="ListaMeses" sel="3" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22056,7 +22056,9 @@
       <c r="I5" s="35"/>
       <c r="J5" s="36"/>
       <c r="K5" s="23"/>
-      <c r="L5" s="30"/>
+      <c r="L5" s="30">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="17" t="s">
@@ -22070,9 +22072,13 @@
       <c r="H6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="37"/>
+      <c r="I6" s="37">
+        <v>5</v>
+      </c>
       <c r="J6" s="37"/>
-      <c r="K6" s="30"/>
+      <c r="K6" s="30">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="17" t="s">
@@ -22669,7 +22675,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="Q8" sqref="Q7:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/dashboards_II.xlsx
+++ b/dashboards_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Git/04. DashBoard Especialista/02.Dashboard 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30F779A2-12AD-458E-BC43-A4BCA92671B7}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32080113-628C-44C4-9BB5-2CC7BFDC9576}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
   </bookViews>
@@ -82,6 +82,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,11 +814,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="5" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$K$6" fmlaRange="ListaAnos" sel="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="5" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$K$6" fmlaRange="ListaAnos" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$L$5" fmlaRange="ListaMeses" sel="3" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$L$5" fmlaRange="ListaMeses" sel="6" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2338,7 +2360,7 @@
   <dimension ref="A1:L477"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21945,8 +21967,8 @@
   </sheetPr>
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22045,7 +22067,10 @@
       <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A5,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="24"/>
@@ -22053,18 +22078,27 @@
       <c r="H5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="35"/>
+      <c r="I5" s="35" t="str" cm="1">
+        <f t="array" ref="I5">INDEX(Auxiliar!ListaEstados,Auxiliar!IndiceEstado)</f>
+        <v>Bahia</v>
+      </c>
       <c r="J5" s="36"/>
-      <c r="K5" s="23"/>
+      <c r="K5" s="23" cm="1">
+        <f t="array" ref="K5">INDEX(Auxiliar!ListaAnos,Auxiliar!IndiceAno)</f>
+        <v>2018</v>
+      </c>
       <c r="L5" s="30">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A6,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="24"/>
@@ -22077,14 +22111,17 @@
       </c>
       <c r="J6" s="37"/>
       <c r="K6" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A7,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="24"/>
@@ -22094,7 +22131,10 @@
       <c r="A8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A8,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="24"/>
@@ -22104,7 +22144,10 @@
       <c r="A9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A9,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="24"/>
@@ -22128,7 +22171,10 @@
       <c r="A10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A10,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="24"/>
@@ -22150,7 +22196,10 @@
       <c r="A11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A11,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="24"/>
@@ -22172,7 +22221,10 @@
       <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A12,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>9880</v>
+      </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="24"/>
@@ -22194,7 +22246,10 @@
       <c r="A13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A13,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>3200</v>
+      </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="24"/>
@@ -22214,7 +22269,10 @@
       <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A14,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="24"/>
@@ -22234,7 +22292,10 @@
       <c r="A15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A15,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="24"/>
@@ -22254,7 +22315,10 @@
       <c r="A16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A16,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="24"/>
@@ -22274,7 +22338,10 @@
       <c r="A17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A17,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>16455</v>
+      </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="24"/>
@@ -22294,7 +22361,10 @@
       <c r="A18" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A18,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="24"/>
@@ -22314,7 +22384,10 @@
       <c r="A19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A19,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="24"/>
@@ -22334,7 +22407,10 @@
       <c r="A20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A20,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="24"/>
@@ -22348,7 +22424,10 @@
       <c r="A21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A21,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="24"/>
@@ -22359,7 +22438,7 @@
       </c>
       <c r="K21" s="33" t="str">
         <f>"Análise de Vendas "&amp;Estado</f>
-        <v xml:space="preserve">Análise de Vendas </v>
+        <v>Análise de Vendas Bahia</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -22369,7 +22448,10 @@
       <c r="A22" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A22,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="24"/>
@@ -22395,7 +22477,10 @@
       <c r="A23" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A23,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>33470</v>
+      </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="24"/>
@@ -22413,7 +22498,10 @@
       <c r="A24" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A24,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="24"/>
@@ -22435,7 +22523,10 @@
       <c r="A25" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A25,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="24"/>
@@ -22457,7 +22548,10 @@
       <c r="A26" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A26,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="24"/>
@@ -22479,7 +22573,10 @@
       <c r="A27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A27,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="24"/>
@@ -22501,7 +22598,10 @@
       <c r="A28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A28,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="24"/>
@@ -22523,7 +22623,10 @@
       <c r="A29" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A29,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>36670</v>
+      </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="24"/>
@@ -22541,7 +22644,10 @@
       <c r="A30" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A30,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="24"/>
@@ -22563,7 +22669,10 @@
       <c r="A31" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A31,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
+        <v>0</v>
+      </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="24"/>

--- a/dashboards_II.xlsx
+++ b/dashboards_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Git/04. DashBoard Especialista/02.Dashboard 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32080113-628C-44C4-9BB5-2CC7BFDC9576}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA7B101C-C721-467E-9FA7-C9F568E15A76}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
   </bookViews>
@@ -21968,7 +21968,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:J6"/>
+      <selection activeCell="C5" sqref="C5:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22071,7 +22071,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A5,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="20">
+        <f>COUNTIFS(Reservas[Estado],A5,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D5" s="20"/>
       <c r="E5" s="24"/>
       <c r="F5" s="25"/>
@@ -22099,7 +22102,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A6,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="20">
+        <f>COUNTIFS(Reservas[Estado],A6,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D6" s="20"/>
       <c r="E6" s="24"/>
       <c r="F6" s="25"/>
@@ -22122,7 +22128,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A7,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="20">
+        <f>COUNTIFS(Reservas[Estado],A7,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D7" s="20"/>
       <c r="E7" s="24"/>
       <c r="F7" s="25"/>
@@ -22135,7 +22144,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A8,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="20">
+        <f>COUNTIFS(Reservas[Estado],A8,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D8" s="20"/>
       <c r="E8" s="24"/>
       <c r="F8" s="25"/>
@@ -22148,7 +22160,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A9,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="20">
+        <f>COUNTIFS(Reservas[Estado],A9,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D9" s="20"/>
       <c r="E9" s="24"/>
       <c r="F9" s="25"/>
@@ -22175,7 +22190,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A10,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="20">
+        <f>COUNTIFS(Reservas[Estado],A10,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D10" s="20"/>
       <c r="E10" s="24"/>
       <c r="F10" s="25"/>
@@ -22200,7 +22218,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A11,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="20">
+        <f>COUNTIFS(Reservas[Estado],A11,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D11" s="20"/>
       <c r="E11" s="24"/>
       <c r="F11" s="25"/>
@@ -22225,7 +22246,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A12,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>9880</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20">
+        <f>COUNTIFS(Reservas[Estado],A12,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>2</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
@@ -22250,7 +22274,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A13,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>3200</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20">
+        <f>COUNTIFS(Reservas[Estado],A13,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="24"/>
       <c r="F13" s="25"/>
@@ -22273,7 +22300,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A14,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20">
+        <f>COUNTIFS(Reservas[Estado],A14,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="24"/>
       <c r="F14" s="25"/>
@@ -22296,7 +22326,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A15,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="20">
+        <f>COUNTIFS(Reservas[Estado],A15,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D15" s="20"/>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
@@ -22319,7 +22352,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A16,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20">
+        <f>COUNTIFS(Reservas[Estado],A16,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
@@ -22342,7 +22378,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A17,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>16455</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="20">
+        <f>COUNTIFS(Reservas[Estado],A17,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>2</v>
+      </c>
       <c r="D17" s="20"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
@@ -22365,7 +22404,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A18,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="20">
+        <f>COUNTIFS(Reservas[Estado],A18,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D18" s="20"/>
       <c r="E18" s="24"/>
       <c r="F18" s="25"/>
@@ -22388,7 +22430,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A19,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="20">
+        <f>COUNTIFS(Reservas[Estado],A19,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D19" s="20"/>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
@@ -22411,7 +22456,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A20,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="20">
+        <f>COUNTIFS(Reservas[Estado],A20,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D20" s="20"/>
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
@@ -22428,7 +22476,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A21,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="20">
+        <f>COUNTIFS(Reservas[Estado],A21,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D21" s="20"/>
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
@@ -22452,7 +22503,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A22,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="20">
+        <f>COUNTIFS(Reservas[Estado],A22,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D22" s="20"/>
       <c r="E22" s="24"/>
       <c r="F22" s="25"/>
@@ -22481,7 +22535,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A23,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>33470</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="20">
+        <f>COUNTIFS(Reservas[Estado],A23,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>4</v>
+      </c>
       <c r="D23" s="20"/>
       <c r="E23" s="24"/>
       <c r="F23" s="25"/>
@@ -22502,7 +22559,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A24,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="20">
+        <f>COUNTIFS(Reservas[Estado],A24,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D24" s="20"/>
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
@@ -22527,7 +22587,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A25,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="20">
+        <f>COUNTIFS(Reservas[Estado],A25,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D25" s="20"/>
       <c r="E25" s="24"/>
       <c r="F25" s="25"/>
@@ -22552,7 +22615,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A26,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="20">
+        <f>COUNTIFS(Reservas[Estado],A26,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D26" s="20"/>
       <c r="E26" s="24"/>
       <c r="F26" s="25"/>
@@ -22577,7 +22643,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A27,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="20">
+        <f>COUNTIFS(Reservas[Estado],A27,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D27" s="20"/>
       <c r="E27" s="24"/>
       <c r="F27" s="25"/>
@@ -22602,7 +22671,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A28,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20">
+        <f>COUNTIFS(Reservas[Estado],A28,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="24"/>
       <c r="F28" s="25"/>
@@ -22627,7 +22699,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A29,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>36670</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="20">
+        <f>COUNTIFS(Reservas[Estado],A29,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>3</v>
+      </c>
       <c r="D29" s="20"/>
       <c r="E29" s="24"/>
       <c r="F29" s="25"/>
@@ -22648,7 +22723,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A30,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="20">
+        <f>COUNTIFS(Reservas[Estado],A30,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D30" s="20"/>
       <c r="E30" s="24"/>
       <c r="F30" s="25"/>
@@ -22673,7 +22751,10 @@
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A31,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="20">
+        <f>COUNTIFS(Reservas[Estado],A31,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>0</v>
+      </c>
       <c r="D31" s="20"/>
       <c r="E31" s="24"/>
       <c r="F31" s="25"/>

--- a/dashboards_II.xlsx
+++ b/dashboards_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Git/04. DashBoard Especialista/02.Dashboard 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA7B101C-C721-467E-9FA7-C9F568E15A76}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF33491E-5E76-4C1A-B99F-E27B622AEAE3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
   </bookViews>
@@ -818,7 +818,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$L$5" fmlaRange="ListaMeses" sel="6" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$L$5" fmlaRange="ListaMeses" sel="7" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21968,7 +21968,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C31"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22075,9 +22075,18 @@
         <f>COUNTIFS(Reservas[Estado],A5,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
         <v>0</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="D5" s="20">
+        <f>COUNTIFS(Reservas[Estado],A5,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="24" t="str">
+        <f>IFERROR(C5/D5,"0%")</f>
+        <v>0%</v>
+      </c>
+      <c r="F5" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A5,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>0</v>
+      </c>
       <c r="H5" s="18" t="s">
         <v>55</v>
       </c>
@@ -22091,7 +22100,7 @@
         <v>2018</v>
       </c>
       <c r="L5" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -22100,15 +22109,24 @@
       </c>
       <c r="B6" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A6,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="C6" s="20">
         <f>COUNTIFS(Reservas[Estado],A6,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+      <c r="D6" s="20">
+        <f>COUNTIFS(Reservas[Estado],A6,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" ref="E6:E31" si="0">IFERROR(C6/D6,"0%")</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A6,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>5</v>
+      </c>
       <c r="H6" s="18" t="s">
         <v>56</v>
       </c>
@@ -22132,9 +22150,18 @@
         <f>COUNTIFS(Reservas[Estado],A7,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="D7" s="20">
+        <f>COUNTIFS(Reservas[Estado],A7,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="F7" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A7,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="17" t="s">
@@ -22148,9 +22175,18 @@
         <f>COUNTIFS(Reservas[Estado],A8,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
         <v>0</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="D8" s="20">
+        <f>COUNTIFS(Reservas[Estado],A8,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="F8" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A8,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="17" t="s">
@@ -22164,9 +22200,18 @@
         <f>COUNTIFS(Reservas[Estado],A9,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
         <v>0</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+      <c r="D9" s="20">
+        <f>COUNTIFS(Reservas[Estado],A9,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0%</v>
+      </c>
+      <c r="F9" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A9,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>0</v>
+      </c>
       <c r="H9" s="33" t="s">
         <v>58</v>
       </c>
@@ -22188,15 +22233,24 @@
       </c>
       <c r="B10" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A10,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1415</v>
       </c>
       <c r="C10" s="20">
         <f>COUNTIFS(Reservas[Estado],A10,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <f>COUNTIFS(Reservas[Estado],A10,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A10,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>5</v>
+      </c>
       <c r="H10" s="5" t="s">
         <v>59</v>
       </c>
@@ -22216,15 +22270,24 @@
       </c>
       <c r="B11" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A11,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="C11" s="20">
         <f>COUNTIFS(Reservas[Estado],A11,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
         <v>0</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
+      <c r="D11" s="20">
+        <f>COUNTIFS(Reservas[Estado],A11,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A11,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>4.5</v>
+      </c>
       <c r="H11" s="19">
         <v>2018</v>
       </c>
@@ -22244,15 +22307,24 @@
       </c>
       <c r="B12" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A12,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>9880</v>
+        <v>3355</v>
       </c>
       <c r="C12" s="20">
         <f>COUNTIFS(Reservas[Estado],A12,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="20">
+        <f>COUNTIFS(Reservas[Estado],A12,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
+      <c r="E12" s="24">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A12,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>5</v>
+      </c>
       <c r="H12" s="19">
         <v>2019</v>
       </c>
@@ -22272,15 +22344,24 @@
       </c>
       <c r="B13" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A13,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>3200</v>
+        <v>5335</v>
       </c>
       <c r="C13" s="20">
         <f>COUNTIFS(Reservas[Estado],A13,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="20">
+        <f>COUNTIFS(Reservas[Estado],A13,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F13" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A13,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>4.333333333333333</v>
+      </c>
       <c r="H13" s="19"/>
       <c r="I13" s="16" t="s">
         <v>63</v>
@@ -22298,15 +22379,24 @@
       </c>
       <c r="B14" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A14,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1520</v>
       </c>
       <c r="C14" s="20">
         <f>COUNTIFS(Reservas[Estado],A14,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
         <v>0</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
+      <c r="D14" s="20">
+        <f>COUNTIFS(Reservas[Estado],A14,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A14,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>5</v>
+      </c>
       <c r="H14" s="19"/>
       <c r="I14" s="16" t="s">
         <v>64</v>
@@ -22324,15 +22414,24 @@
       </c>
       <c r="B15" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A15,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1555</v>
       </c>
       <c r="C15" s="20">
         <f>COUNTIFS(Reservas[Estado],A15,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
         <v>0</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
+      <c r="D15" s="20">
+        <f>COUNTIFS(Reservas[Estado],A15,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A15,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>5</v>
+      </c>
       <c r="H15" s="19"/>
       <c r="I15" s="16" t="s">
         <v>65</v>
@@ -22350,15 +22449,24 @@
       </c>
       <c r="B16" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A16,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1590</v>
       </c>
       <c r="C16" s="20">
         <f>COUNTIFS(Reservas[Estado],A16,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="20">
+        <f>COUNTIFS(Reservas[Estado],A16,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A16,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>4</v>
+      </c>
       <c r="H16" s="19"/>
       <c r="I16" s="16" t="s">
         <v>66</v>
@@ -22376,15 +22484,24 @@
       </c>
       <c r="B17" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A17,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>16455</v>
+        <v>5820</v>
       </c>
       <c r="C17" s="20">
         <f>COUNTIFS(Reservas[Estado],A17,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
         <v>2</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
+      <c r="D17" s="20">
+        <f>COUNTIFS(Reservas[Estado],A17,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>3</v>
+      </c>
+      <c r="E17" s="24">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F17" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A17,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>4.666666666666667</v>
+      </c>
       <c r="H17" s="19"/>
       <c r="I17" s="16" t="s">
         <v>67</v>
@@ -22402,15 +22519,24 @@
       </c>
       <c r="B18" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A18,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1660</v>
       </c>
       <c r="C18" s="20">
         <f>COUNTIFS(Reservas[Estado],A18,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
+        <f>COUNTIFS(Reservas[Estado],A18,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A18,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>5</v>
+      </c>
       <c r="H18" s="19"/>
       <c r="I18" s="16" t="s">
         <v>68</v>
@@ -22428,15 +22554,24 @@
       </c>
       <c r="B19" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A19,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1695</v>
       </c>
       <c r="C19" s="20">
         <f>COUNTIFS(Reservas[Estado],A19,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
         <v>0</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
+      <c r="D19" s="20">
+        <f>COUNTIFS(Reservas[Estado],A19,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A19,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>5</v>
+      </c>
       <c r="H19" s="19"/>
       <c r="I19" s="16" t="s">
         <v>69</v>
@@ -22454,15 +22589,24 @@
       </c>
       <c r="B20" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A20,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1730</v>
       </c>
       <c r="C20" s="20">
         <f>COUNTIFS(Reservas[Estado],A20,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
         <v>0</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
+      <c r="D20" s="20">
+        <f>COUNTIFS(Reservas[Estado],A20,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A20,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>5</v>
+      </c>
       <c r="H20" s="19"/>
       <c r="I20" s="16" t="s">
         <v>70</v>
@@ -22474,15 +22618,24 @@
       </c>
       <c r="B21" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A21,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>8075</v>
       </c>
       <c r="C21" s="20">
         <f>COUNTIFS(Reservas[Estado],A21,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="D21" s="20">
+        <f>COUNTIFS(Reservas[Estado],A21,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="24">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A21,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>4.5</v>
+      </c>
       <c r="H21" s="19"/>
       <c r="I21" s="16" t="s">
         <v>71</v>
@@ -22501,15 +22654,24 @@
       </c>
       <c r="B22" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A22,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1905</v>
       </c>
       <c r="C22" s="20">
         <f>COUNTIFS(Reservas[Estado],A22,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
         <v>0</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
+      <c r="D22" s="20">
+        <f>COUNTIFS(Reservas[Estado],A22,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A22,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>4</v>
+      </c>
       <c r="H22" s="19"/>
       <c r="I22" s="16" t="s">
         <v>72</v>
@@ -22533,15 +22695,24 @@
       </c>
       <c r="B23" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A23,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>33470</v>
+        <v>2345</v>
       </c>
       <c r="C23" s="20">
         <f>COUNTIFS(Reservas[Estado],A23,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>4</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="20">
+        <f>COUNTIFS(Reservas[Estado],A23,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A23,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>5</v>
+      </c>
       <c r="K23" s="26">
         <v>1</v>
       </c>
@@ -22557,15 +22728,24 @@
       </c>
       <c r="B24" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A24,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1940</v>
       </c>
       <c r="C24" s="20">
         <f>COUNTIFS(Reservas[Estado],A24,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="20">
+        <f>COUNTIFS(Reservas[Estado],A24,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A24,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>5</v>
+      </c>
       <c r="H24" s="33" t="s">
         <v>92</v>
       </c>
@@ -22585,15 +22765,24 @@
       </c>
       <c r="B25" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A25,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1975</v>
       </c>
       <c r="C25" s="20">
         <f>COUNTIFS(Reservas[Estado],A25,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
         <v>0</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
+      <c r="D25" s="20">
+        <f>COUNTIFS(Reservas[Estado],A25,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A25,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>5</v>
+      </c>
       <c r="H25" s="27" t="s">
         <v>0</v>
       </c>
@@ -22613,15 +22802,24 @@
       </c>
       <c r="B26" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A26,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>2045</v>
       </c>
       <c r="C26" s="20">
         <f>COUNTIFS(Reservas[Estado],A26,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
         <v>0</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
+      <c r="D26" s="20">
+        <f>COUNTIFS(Reservas[Estado],A26,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A26,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>5</v>
+      </c>
       <c r="H26" s="27" t="s">
         <v>1</v>
       </c>
@@ -22641,15 +22839,24 @@
       </c>
       <c r="B27" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A27,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="C27" s="20">
         <f>COUNTIFS(Reservas[Estado],A27,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
         <v>0</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
+      <c r="D27" s="20">
+        <f>COUNTIFS(Reservas[Estado],A27,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A27,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>5</v>
+      </c>
       <c r="H27" s="27" t="s">
         <v>2</v>
       </c>
@@ -22669,15 +22876,24 @@
       </c>
       <c r="B28" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A28,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>2115</v>
       </c>
       <c r="C28" s="20">
         <f>COUNTIFS(Reservas[Estado],A28,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="20">
+        <f>COUNTIFS(Reservas[Estado],A28,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A28,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>4</v>
+      </c>
       <c r="H28" s="27" t="s">
         <v>3</v>
       </c>
@@ -22697,15 +22913,24 @@
       </c>
       <c r="B29" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A29,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>36670</v>
+        <v>12213</v>
       </c>
       <c r="C29" s="20">
         <f>COUNTIFS(Reservas[Estado],A29,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>3</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="20">
+        <f>COUNTIFS(Reservas[Estado],A29,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>4</v>
+      </c>
+      <c r="E29" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A29,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>4.5</v>
+      </c>
       <c r="K29" s="26">
         <v>7</v>
       </c>
@@ -22721,15 +22946,24 @@
       </c>
       <c r="B30" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A30,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>2185</v>
       </c>
       <c r="C30" s="20">
         <f>COUNTIFS(Reservas[Estado],A30,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="20">
+        <f>COUNTIFS(Reservas[Estado],A30,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A30,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>5</v>
+      </c>
       <c r="H30" s="33" t="s">
         <v>95</v>
       </c>
@@ -22749,15 +22983,24 @@
       </c>
       <c r="B31" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A31,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>2255</v>
       </c>
       <c r="C31" s="20">
         <f>COUNTIFS(Reservas[Estado],A31,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
         <v>0</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
+      <c r="D31" s="20">
+        <f>COUNTIFS(Reservas[Estado],A31,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="25">
+        <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A31,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
+        <v>5</v>
+      </c>
       <c r="H31" s="27" t="s">
         <v>0</v>
       </c>

--- a/dashboards_II.xlsx
+++ b/dashboards_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Git/04. DashBoard Especialista/02.Dashboard 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF33491E-5E76-4C1A-B99F-E27B622AEAE3}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14D717E4-EF5C-4A5F-9CAE-4E7FB048640E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
   </bookViews>
@@ -21967,8 +21967,8 @@
   </sheetPr>
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22261,7 +22261,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="17"/>
-      <c r="M10" s="16"/>
+      <c r="M10" s="16">
+        <f>LARGE(Auxiliar!ListaVendas,K10)</f>
+        <v>12213</v>
+      </c>
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:19">
@@ -22298,7 +22301,10 @@
         <v>2</v>
       </c>
       <c r="L11" s="17"/>
-      <c r="M11" s="16"/>
+      <c r="M11" s="16">
+        <f>LARGE(Auxiliar!ListaVendas,K11)</f>
+        <v>8075</v>
+      </c>
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:19">
@@ -22335,7 +22341,10 @@
         <v>3</v>
       </c>
       <c r="L12" s="17"/>
-      <c r="M12" s="16"/>
+      <c r="M12" s="16">
+        <f>LARGE(Auxiliar!ListaVendas,K12)</f>
+        <v>5820</v>
+      </c>
       <c r="N12" s="24"/>
     </row>
     <row r="13" spans="1:19">
@@ -22370,7 +22379,10 @@
         <v>4</v>
       </c>
       <c r="L13" s="17"/>
-      <c r="M13" s="16"/>
+      <c r="M13" s="16">
+        <f>LARGE(Auxiliar!ListaVendas,K13)</f>
+        <v>5800</v>
+      </c>
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:19">
@@ -22405,7 +22417,10 @@
         <v>5</v>
       </c>
       <c r="L14" s="17"/>
-      <c r="M14" s="16"/>
+      <c r="M14" s="16">
+        <f>LARGE(Auxiliar!ListaVendas,K14)</f>
+        <v>5335</v>
+      </c>
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:19">
@@ -22440,7 +22455,10 @@
         <v>6</v>
       </c>
       <c r="L15" s="17"/>
-      <c r="M15" s="16"/>
+      <c r="M15" s="16">
+        <f>LARGE(Auxiliar!ListaVendas,K15)</f>
+        <v>3355</v>
+      </c>
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:19">
@@ -22475,7 +22493,10 @@
         <v>7</v>
       </c>
       <c r="L16" s="17"/>
-      <c r="M16" s="16"/>
+      <c r="M16" s="16">
+        <f>LARGE(Auxiliar!ListaVendas,K16)</f>
+        <v>2345</v>
+      </c>
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14">
@@ -22510,7 +22531,10 @@
         <v>8</v>
       </c>
       <c r="L17" s="17"/>
-      <c r="M17" s="16"/>
+      <c r="M17" s="16">
+        <f>LARGE(Auxiliar!ListaVendas,K17)</f>
+        <v>2255</v>
+      </c>
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14">
@@ -22545,7 +22569,10 @@
         <v>9</v>
       </c>
       <c r="L18" s="17"/>
-      <c r="M18" s="16"/>
+      <c r="M18" s="16">
+        <f>LARGE(Auxiliar!ListaVendas,K18)</f>
+        <v>2185</v>
+      </c>
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14">
@@ -22580,7 +22607,10 @@
         <v>10</v>
       </c>
       <c r="L19" s="17"/>
-      <c r="M19" s="16"/>
+      <c r="M19" s="16">
+        <f>LARGE(Auxiliar!ListaVendas,K19)</f>
+        <v>2115</v>
+      </c>
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14">

--- a/dashboards_II.xlsx
+++ b/dashboards_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Git/04. DashBoard Especialista/02.Dashboard 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14D717E4-EF5C-4A5F-9CAE-4E7FB048640E}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9333813-1EC8-4F97-B39E-E550F8C7D60C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
   </bookViews>
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$I$6" fmlaRange="ListaEstados" sel="5" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$I$6" fmlaRange="ListaEstados" sel="25" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -818,7 +818,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$L$5" fmlaRange="ListaMeses" sel="7" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$L$5" fmlaRange="ListaMeses" sel="8" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="I5" s="35" t="str" cm="1">
         <f t="array" ref="I5">INDEX(Auxiliar!ListaEstados,Auxiliar!IndiceEstado)</f>
-        <v>Bahia</v>
+        <v>São Paulo</v>
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="23" cm="1">
@@ -22100,7 +22100,7 @@
         <v>2018</v>
       </c>
       <c r="L5" s="30">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -22109,7 +22109,7 @@
       </c>
       <c r="B6" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A6,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="C6" s="20">
         <f>COUNTIFS(Reservas[Estado],A6,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22117,21 +22117,21 @@
       </c>
       <c r="D6" s="20">
         <f>COUNTIFS(Reservas[Estado],A6,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24" t="str">
         <f t="shared" ref="E6:E31" si="0">IFERROR(C6/D6,"0%")</f>
-        <v>0</v>
+        <v>0%</v>
       </c>
       <c r="F6" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A6,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>56</v>
       </c>
       <c r="I6" s="37">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J6" s="37"/>
       <c r="K6" s="30">
@@ -22233,23 +22233,23 @@
       </c>
       <c r="B10" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A10,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1415</v>
+        <v>0</v>
       </c>
       <c r="C10" s="20">
         <f>COUNTIFS(Reservas[Estado],A10,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="20">
         <f>COUNTIFS(Reservas[Estado],A10,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0%</v>
       </c>
       <c r="F10" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A10,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>59</v>
@@ -22260,10 +22260,13 @@
       <c r="K10" s="26">
         <v>1</v>
       </c>
-      <c r="L10" s="17"/>
+      <c r="L10" s="17" t="str">
+        <f>IF(M10&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M10,Auxiliar!ListaVendas,0)),"")</f>
+        <v>São Paulo</v>
+      </c>
       <c r="M10" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K10)</f>
-        <v>12213</v>
+        <v>26315</v>
       </c>
       <c r="N10" s="24"/>
     </row>
@@ -22273,23 +22276,23 @@
       </c>
       <c r="B11" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A11,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>5800</v>
+        <v>2640</v>
       </c>
       <c r="C11" s="20">
         <f>COUNTIFS(Reservas[Estado],A11,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="20">
         <f>COUNTIFS(Reservas[Estado],A11,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A11,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H11" s="19">
         <v>2018</v>
@@ -22300,10 +22303,13 @@
       <c r="K11" s="26">
         <v>2</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="17" t="str">
+        <f>IF(M11&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M11,Auxiliar!ListaVendas,0)),"")</f>
+        <v>Rio de Janeiro</v>
+      </c>
       <c r="M11" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K11)</f>
-        <v>8075</v>
+        <v>26160</v>
       </c>
       <c r="N11" s="24"/>
     </row>
@@ -22313,23 +22319,23 @@
       </c>
       <c r="B12" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A12,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>3355</v>
+        <v>8620</v>
       </c>
       <c r="C12" s="20">
         <f>COUNTIFS(Reservas[Estado],A12,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="20">
         <f>COUNTIFS(Reservas[Estado],A12,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="24">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F12" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A12,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" s="19">
         <v>2019</v>
@@ -22340,10 +22346,13 @@
       <c r="K12" s="26">
         <v>3</v>
       </c>
-      <c r="L12" s="17"/>
+      <c r="L12" s="17" t="str">
+        <f>IF(M12&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M12,Auxiliar!ListaVendas,0)),"")</f>
+        <v>Minas Gerais</v>
+      </c>
       <c r="M12" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K12)</f>
-        <v>5820</v>
+        <v>17918</v>
       </c>
       <c r="N12" s="24"/>
     </row>
@@ -22353,23 +22362,23 @@
       </c>
       <c r="B13" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A13,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>5335</v>
+        <v>0</v>
       </c>
       <c r="C13" s="20">
         <f>COUNTIFS(Reservas[Estado],A13,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="20">
         <f>COUNTIFS(Reservas[Estado],A13,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>3</v>
-      </c>
-      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0%</v>
       </c>
       <c r="F13" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A13,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="16" t="s">
@@ -22378,10 +22387,13 @@
       <c r="K13" s="26">
         <v>4</v>
       </c>
-      <c r="L13" s="17"/>
+      <c r="L13" s="17" t="str">
+        <f>IF(M13&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M13,Auxiliar!ListaVendas,0)),"")</f>
+        <v>Espírito Santo</v>
+      </c>
       <c r="M13" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K13)</f>
-        <v>5800</v>
+        <v>8620</v>
       </c>
       <c r="N13" s="24"/>
     </row>
@@ -22391,7 +22403,7 @@
       </c>
       <c r="B14" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A14,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1520</v>
+        <v>0</v>
       </c>
       <c r="C14" s="20">
         <f>COUNTIFS(Reservas[Estado],A14,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22399,15 +22411,15 @@
       </c>
       <c r="D14" s="20">
         <f>COUNTIFS(Reservas[Estado],A14,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
       <c r="F14" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A14,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="16" t="s">
@@ -22416,10 +22428,13 @@
       <c r="K14" s="26">
         <v>5</v>
       </c>
-      <c r="L14" s="17"/>
+      <c r="L14" s="17" t="str">
+        <f>IF(M14&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M14,Auxiliar!ListaVendas,0)),"")</f>
+        <v>Rio Grande do Sul</v>
+      </c>
       <c r="M14" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K14)</f>
-        <v>5335</v>
+        <v>5105</v>
       </c>
       <c r="N14" s="24"/>
     </row>
@@ -22429,7 +22444,7 @@
       </c>
       <c r="B15" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A15,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1555</v>
+        <v>0</v>
       </c>
       <c r="C15" s="20">
         <f>COUNTIFS(Reservas[Estado],A15,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22437,15 +22452,15 @@
       </c>
       <c r="D15" s="20">
         <f>COUNTIFS(Reservas[Estado],A15,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
       <c r="F15" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A15,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="16" t="s">
@@ -22454,10 +22469,13 @@
       <c r="K15" s="26">
         <v>6</v>
       </c>
-      <c r="L15" s="17"/>
+      <c r="L15" s="17" t="str">
+        <f>IF(M15&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M15,Auxiliar!ListaVendas,0)),"")</f>
+        <v>Distrito Federal</v>
+      </c>
       <c r="M15" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K15)</f>
-        <v>3355</v>
+        <v>2640</v>
       </c>
       <c r="N15" s="24"/>
     </row>
@@ -22467,23 +22485,23 @@
       </c>
       <c r="B16" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A16,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1590</v>
+        <v>0</v>
       </c>
       <c r="C16" s="20">
         <f>COUNTIFS(Reservas[Estado],A16,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="20">
         <f>COUNTIFS(Reservas[Estado],A16,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0%</v>
       </c>
       <c r="F16" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A16,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="16" t="s">
@@ -22492,10 +22510,13 @@
       <c r="K16" s="26">
         <v>7</v>
       </c>
-      <c r="L16" s="17"/>
+      <c r="L16" s="17" t="str">
+        <f>IF(M16&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M16,Auxiliar!ListaVendas,0)),"")</f>
+        <v>Santa Catarina</v>
+      </c>
       <c r="M16" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K16)</f>
-        <v>2345</v>
+        <v>2535</v>
       </c>
       <c r="N16" s="24"/>
     </row>
@@ -22505,23 +22526,23 @@
       </c>
       <c r="B17" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A17,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>5820</v>
+        <v>17918</v>
       </c>
       <c r="C17" s="20">
         <f>COUNTIFS(Reservas[Estado],A17,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="20">
         <f>COUNTIFS(Reservas[Estado],A17,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="24">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.2</v>
       </c>
       <c r="F17" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A17,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4.666666666666667</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="16" t="s">
@@ -22530,10 +22551,13 @@
       <c r="K17" s="26">
         <v>8</v>
       </c>
-      <c r="L17" s="17"/>
+      <c r="L17" s="17" t="str">
+        <f>IF(M17&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M17,Auxiliar!ListaVendas,0)),"")</f>
+        <v/>
+      </c>
       <c r="M17" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K17)</f>
-        <v>2255</v>
+        <v>0</v>
       </c>
       <c r="N17" s="24"/>
     </row>
@@ -22543,23 +22567,23 @@
       </c>
       <c r="B18" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A18,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1660</v>
+        <v>0</v>
       </c>
       <c r="C18" s="20">
         <f>COUNTIFS(Reservas[Estado],A18,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="20">
         <f>COUNTIFS(Reservas[Estado],A18,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="24">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0%</v>
       </c>
       <c r="F18" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A18,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="16" t="s">
@@ -22568,10 +22592,13 @@
       <c r="K18" s="26">
         <v>9</v>
       </c>
-      <c r="L18" s="17"/>
+      <c r="L18" s="17" t="str">
+        <f>IF(M18&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M18,Auxiliar!ListaVendas,0)),"")</f>
+        <v/>
+      </c>
       <c r="M18" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K18)</f>
-        <v>2185</v>
+        <v>0</v>
       </c>
       <c r="N18" s="24"/>
     </row>
@@ -22581,7 +22608,7 @@
       </c>
       <c r="B19" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A19,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1695</v>
+        <v>0</v>
       </c>
       <c r="C19" s="20">
         <f>COUNTIFS(Reservas[Estado],A19,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22589,15 +22616,15 @@
       </c>
       <c r="D19" s="20">
         <f>COUNTIFS(Reservas[Estado],A19,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="24">
+        <v>0</v>
+      </c>
+      <c r="E19" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
       <c r="F19" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A19,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="16" t="s">
@@ -22606,10 +22633,13 @@
       <c r="K19" s="26">
         <v>10</v>
       </c>
-      <c r="L19" s="17"/>
+      <c r="L19" s="17" t="str">
+        <f>IF(M19&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M19,Auxiliar!ListaVendas,0)),"")</f>
+        <v/>
+      </c>
       <c r="M19" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K19)</f>
-        <v>2115</v>
+        <v>0</v>
       </c>
       <c r="N19" s="24"/>
     </row>
@@ -22619,7 +22649,7 @@
       </c>
       <c r="B20" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A20,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1730</v>
+        <v>0</v>
       </c>
       <c r="C20" s="20">
         <f>COUNTIFS(Reservas[Estado],A20,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22627,15 +22657,15 @@
       </c>
       <c r="D20" s="20">
         <f>COUNTIFS(Reservas[Estado],A20,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
       <c r="F20" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A20,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="16" t="s">
@@ -22648,23 +22678,23 @@
       </c>
       <c r="B21" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A21,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>8075</v>
+        <v>0</v>
       </c>
       <c r="C21" s="20">
         <f>COUNTIFS(Reservas[Estado],A21,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="20">
         <f>COUNTIFS(Reservas[Estado],A21,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>4</v>
-      </c>
-      <c r="E21" s="24">
+        <v>0</v>
+      </c>
+      <c r="E21" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0%</v>
       </c>
       <c r="F21" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A21,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="16" t="s">
@@ -22672,7 +22702,7 @@
       </c>
       <c r="K21" s="33" t="str">
         <f>"Análise de Vendas "&amp;Estado</f>
-        <v>Análise de Vendas Bahia</v>
+        <v>Análise de Vendas São Paulo</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -22684,7 +22714,7 @@
       </c>
       <c r="B22" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A22,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1905</v>
+        <v>0</v>
       </c>
       <c r="C22" s="20">
         <f>COUNTIFS(Reservas[Estado],A22,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22692,15 +22722,15 @@
       </c>
       <c r="D22" s="20">
         <f>COUNTIFS(Reservas[Estado],A22,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
       <c r="F22" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A22,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="16" t="s">
@@ -22725,23 +22755,23 @@
       </c>
       <c r="B23" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A23,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>2345</v>
+        <v>26160</v>
       </c>
       <c r="C23" s="20">
         <f>COUNTIFS(Reservas[Estado],A23,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D23" s="20">
         <f>COUNTIFS(Reservas[Estado],A23,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E23" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F23" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A23,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="K23" s="26">
         <v>1</v>
@@ -22758,23 +22788,23 @@
       </c>
       <c r="B24" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A24,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1940</v>
+        <v>0</v>
       </c>
       <c r="C24" s="20">
         <f>COUNTIFS(Reservas[Estado],A24,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="20">
         <f>COUNTIFS(Reservas[Estado],A24,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0%</v>
       </c>
       <c r="F24" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A24,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H24" s="33" t="s">
         <v>92</v>
@@ -22795,7 +22825,7 @@
       </c>
       <c r="B25" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A25,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1975</v>
+        <v>5105</v>
       </c>
       <c r="C25" s="20">
         <f>COUNTIFS(Reservas[Estado],A25,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22803,7 +22833,7 @@
       </c>
       <c r="D25" s="20">
         <f>COUNTIFS(Reservas[Estado],A25,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="24">
         <f t="shared" si="0"/>
@@ -22832,7 +22862,7 @@
       </c>
       <c r="B26" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A26,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>2045</v>
+        <v>0</v>
       </c>
       <c r="C26" s="20">
         <f>COUNTIFS(Reservas[Estado],A26,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22840,15 +22870,15 @@
       </c>
       <c r="D26" s="20">
         <f>COUNTIFS(Reservas[Estado],A26,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
       <c r="F26" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A26,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26" s="27" t="s">
         <v>1</v>
@@ -22869,7 +22899,7 @@
       </c>
       <c r="B27" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A27,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>2080</v>
+        <v>0</v>
       </c>
       <c r="C27" s="20">
         <f>COUNTIFS(Reservas[Estado],A27,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22877,15 +22907,15 @@
       </c>
       <c r="D27" s="20">
         <f>COUNTIFS(Reservas[Estado],A27,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="24">
+        <v>0</v>
+      </c>
+      <c r="E27" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
       <c r="F27" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A27,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H27" s="27" t="s">
         <v>2</v>
@@ -22906,7 +22936,7 @@
       </c>
       <c r="B28" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A28,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>2115</v>
+        <v>2535</v>
       </c>
       <c r="C28" s="20">
         <f>COUNTIFS(Reservas[Estado],A28,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22922,7 +22952,7 @@
       </c>
       <c r="F28" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A28,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H28" s="27" t="s">
         <v>3</v>
@@ -22943,23 +22973,23 @@
       </c>
       <c r="B29" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A29,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>12213</v>
+        <v>26315</v>
       </c>
       <c r="C29" s="20">
         <f>COUNTIFS(Reservas[Estado],A29,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D29" s="20">
         <f>COUNTIFS(Reservas[Estado],A29,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E29" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F29" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A29,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="K29" s="26">
         <v>7</v>
@@ -22976,23 +23006,23 @@
       </c>
       <c r="B30" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A30,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>2185</v>
+        <v>0</v>
       </c>
       <c r="C30" s="20">
         <f>COUNTIFS(Reservas[Estado],A30,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="20">
         <f>COUNTIFS(Reservas[Estado],A30,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E30" s="24">
+        <v>0</v>
+      </c>
+      <c r="E30" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0%</v>
       </c>
       <c r="F30" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A30,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H30" s="33" t="s">
         <v>95</v>
@@ -23013,7 +23043,7 @@
       </c>
       <c r="B31" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A31,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>2255</v>
+        <v>0</v>
       </c>
       <c r="C31" s="20">
         <f>COUNTIFS(Reservas[Estado],A31,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -23021,15 +23051,15 @@
       </c>
       <c r="D31" s="20">
         <f>COUNTIFS(Reservas[Estado],A31,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E31" s="24">
+        <v>0</v>
+      </c>
+      <c r="E31" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
       <c r="F31" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A31,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H31" s="27" t="s">
         <v>0</v>

--- a/dashboards_II.xlsx
+++ b/dashboards_II.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Git/04. DashBoard Especialista/02.Dashboard 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9333813-1EC8-4F97-B39E-E550F8C7D60C}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C8A0B96-FBE7-4EF5-981A-48572FA5E545}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
   </bookViews>
   <sheets>
     <sheet name="Rascunho Dash" sheetId="15" state="hidden" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Auxiliar!$L$10:$L$19</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Auxiliar!$M$10:$M$19</definedName>
     <definedName name="Ano" localSheetId="3">Auxiliar!$K$5</definedName>
     <definedName name="Ano" localSheetId="4">Auxiliar!$K$5</definedName>
     <definedName name="Ano" localSheetId="0">Auxiliar!$K$5</definedName>
@@ -809,8 +811,615 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>10 Principais Estados Vendas</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>10 Principais Estados Vendas</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="funnel" uniqueId="{0CE54EC0-5959-429E-8085-5EC98614EF17}">
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.0599999987"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$I$6" fmlaRange="ListaEstados" sel="25" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$I$6" fmlaRange="ListaEstados" sel="5" val="3"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -818,7 +1427,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$L$5" fmlaRange="ListaMeses" sel="8" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$L$5" fmlaRange="ListaMeses" sel="3" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1576,6 +2185,84 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>39220</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>43702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>204508</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F307CD2F-5895-68C9-DCA5-0C603B1F512A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="648820" y="558052"/>
+              <a:ext cx="3213288" cy="1927973"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -21967,8 +22654,8 @@
   </sheetPr>
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21985,7 +22672,8 @@
     <col min="10" max="10" width="3.7109375" customWidth="1"/>
     <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.7109375" customWidth="1"/>
     <col min="16" max="16" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -22092,7 +22780,7 @@
       </c>
       <c r="I5" s="35" t="str" cm="1">
         <f t="array" ref="I5">INDEX(Auxiliar!ListaEstados,Auxiliar!IndiceEstado)</f>
-        <v>São Paulo</v>
+        <v>Bahia</v>
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="23" cm="1">
@@ -22100,7 +22788,7 @@
         <v>2018</v>
       </c>
       <c r="L5" s="30">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -22131,7 +22819,7 @@
         <v>56</v>
       </c>
       <c r="I6" s="37">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J6" s="37"/>
       <c r="K6" s="30">
@@ -22262,13 +22950,16 @@
       </c>
       <c r="L10" s="17" t="str">
         <f>IF(M10&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M10,Auxiliar!ListaVendas,0)),"")</f>
-        <v>São Paulo</v>
+        <v>Pernambuco</v>
       </c>
       <c r="M10" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K10)</f>
-        <v>26315</v>
-      </c>
-      <c r="N10" s="24"/>
+        <v>21340</v>
+      </c>
+      <c r="N10" s="24">
+        <f>IFERROR(VLOOKUP(L10,$A$4:$F$31,5,0),"0%")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="17" t="s">
@@ -22276,7 +22967,7 @@
       </c>
       <c r="B11" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A11,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>2640</v>
+        <v>4055</v>
       </c>
       <c r="C11" s="20">
         <f>COUNTIFS(Reservas[Estado],A11,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22284,15 +22975,15 @@
       </c>
       <c r="D11" s="20">
         <f>COUNTIFS(Reservas[Estado],A11,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A11,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" s="19">
         <v>2018</v>
@@ -22305,13 +22996,16 @@
       </c>
       <c r="L11" s="17" t="str">
         <f>IF(M11&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M11,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Rio de Janeiro</v>
+        <v>São Paulo</v>
       </c>
       <c r="M11" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K11)</f>
-        <v>26160</v>
-      </c>
-      <c r="N11" s="24"/>
+        <v>20857</v>
+      </c>
+      <c r="N11" s="24">
+        <f t="shared" ref="N11:N19" si="1">IFERROR(VLOOKUP(L11,$A$4:$F$31,5,0),"0%")</f>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="17" t="s">
@@ -22319,7 +23013,7 @@
       </c>
       <c r="B12" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A12,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>8620</v>
+        <v>11682</v>
       </c>
       <c r="C12" s="20">
         <f>COUNTIFS(Reservas[Estado],A12,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22327,7 +23021,7 @@
       </c>
       <c r="D12" s="20">
         <f>COUNTIFS(Reservas[Estado],A12,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="24">
         <f t="shared" si="0"/>
@@ -22335,7 +23029,7 @@
       </c>
       <c r="F12" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A12,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="19">
         <v>2019</v>
@@ -22348,13 +23042,16 @@
       </c>
       <c r="L12" s="17" t="str">
         <f>IF(M12&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M12,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Minas Gerais</v>
+        <v>Espírito Santo</v>
       </c>
       <c r="M12" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K12)</f>
-        <v>17918</v>
-      </c>
-      <c r="N12" s="24"/>
+        <v>11682</v>
+      </c>
+      <c r="N12" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="17" t="s">
@@ -22389,13 +23086,16 @@
       </c>
       <c r="L13" s="17" t="str">
         <f>IF(M13&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M13,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Espírito Santo</v>
+        <v>Santa Catarina</v>
       </c>
       <c r="M13" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K13)</f>
-        <v>8620</v>
-      </c>
-      <c r="N13" s="24"/>
+        <v>11536</v>
+      </c>
+      <c r="N13" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="17" t="s">
@@ -22430,13 +23130,16 @@
       </c>
       <c r="L14" s="17" t="str">
         <f>IF(M14&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M14,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Rio Grande do Sul</v>
+        <v>Minas Gerais</v>
       </c>
       <c r="M14" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K14)</f>
-        <v>5105</v>
-      </c>
-      <c r="N14" s="24"/>
+        <v>9350</v>
+      </c>
+      <c r="N14" s="24">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="17" t="s">
@@ -22444,23 +23147,23 @@
       </c>
       <c r="B15" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A15,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1345</v>
       </c>
       <c r="C15" s="20">
         <f>COUNTIFS(Reservas[Estado],A15,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="20">
         <f>COUNTIFS(Reservas[Estado],A15,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>1</v>
       </c>
       <c r="F15" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A15,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="16" t="s">
@@ -22471,13 +23174,16 @@
       </c>
       <c r="L15" s="17" t="str">
         <f>IF(M15&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M15,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Distrito Federal</v>
+        <v>Roraima</v>
       </c>
       <c r="M15" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K15)</f>
-        <v>2640</v>
-      </c>
-      <c r="N15" s="24"/>
+        <v>8765</v>
+      </c>
+      <c r="N15" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="17" t="s">
@@ -22485,7 +23191,7 @@
       </c>
       <c r="B16" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A16,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="C16" s="20">
         <f>COUNTIFS(Reservas[Estado],A16,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22493,15 +23199,15 @@
       </c>
       <c r="D16" s="20">
         <f>COUNTIFS(Reservas[Estado],A16,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="24">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E16" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
       </c>
       <c r="F16" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A16,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="16" t="s">
@@ -22512,13 +23218,16 @@
       </c>
       <c r="L16" s="17" t="str">
         <f>IF(M16&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M16,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Santa Catarina</v>
+        <v>Rio Grande do Sul</v>
       </c>
       <c r="M16" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K16)</f>
-        <v>2535</v>
-      </c>
-      <c r="N16" s="24"/>
+        <v>5890</v>
+      </c>
+      <c r="N16" s="24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="17" t="s">
@@ -22526,11 +23235,11 @@
       </c>
       <c r="B17" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A17,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>17918</v>
+        <v>9350</v>
       </c>
       <c r="C17" s="20">
         <f>COUNTIFS(Reservas[Estado],A17,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="20">
         <f>COUNTIFS(Reservas[Estado],A17,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
@@ -22538,11 +23247,11 @@
       </c>
       <c r="E17" s="24">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F17" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A17,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="16" t="s">
@@ -22553,13 +23262,16 @@
       </c>
       <c r="L17" s="17" t="str">
         <f>IF(M17&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M17,Auxiliar!ListaVendas,0)),"")</f>
-        <v/>
+        <v>Paraíba</v>
       </c>
       <c r="M17" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K17)</f>
+        <v>5678</v>
+      </c>
+      <c r="N17" s="24">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="17" t="s">
@@ -22567,23 +23279,23 @@
       </c>
       <c r="B18" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A18,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="C18" s="20">
         <f>COUNTIFS(Reservas[Estado],A18,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="20">
         <f>COUNTIFS(Reservas[Estado],A18,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="E18" s="24">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>1</v>
       </c>
       <c r="F18" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A18,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="16" t="s">
@@ -22594,13 +23306,16 @@
       </c>
       <c r="L18" s="17" t="str">
         <f>IF(M18&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M18,Auxiliar!ListaVendas,0)),"")</f>
-        <v/>
+        <v>Paraíba</v>
       </c>
       <c r="M18" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K18)</f>
+        <v>5678</v>
+      </c>
+      <c r="N18" s="24">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="17" t="s">
@@ -22608,7 +23323,7 @@
       </c>
       <c r="B19" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A19,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>5678</v>
       </c>
       <c r="C19" s="20">
         <f>COUNTIFS(Reservas[Estado],A19,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22616,15 +23331,15 @@
       </c>
       <c r="D19" s="20">
         <f>COUNTIFS(Reservas[Estado],A19,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="24">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E19" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
       </c>
       <c r="F19" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A19,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="16" t="s">
@@ -22635,13 +23350,16 @@
       </c>
       <c r="L19" s="17" t="str">
         <f>IF(M19&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M19,Auxiliar!ListaVendas,0)),"")</f>
-        <v/>
+        <v>Paraná</v>
       </c>
       <c r="M19" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K19)</f>
+        <v>4983</v>
+      </c>
+      <c r="N19" s="24">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="17" t="s">
@@ -22649,7 +23367,7 @@
       </c>
       <c r="B20" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A20,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>4983</v>
       </c>
       <c r="C20" s="20">
         <f>COUNTIFS(Reservas[Estado],A20,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22657,15 +23375,15 @@
       </c>
       <c r="D20" s="20">
         <f>COUNTIFS(Reservas[Estado],A20,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="24">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
       </c>
       <c r="F20" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A20,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="16" t="s">
@@ -22678,7 +23396,7 @@
       </c>
       <c r="B21" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A21,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>21340</v>
       </c>
       <c r="C21" s="20">
         <f>COUNTIFS(Reservas[Estado],A21,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22686,15 +23404,15 @@
       </c>
       <c r="D21" s="20">
         <f>COUNTIFS(Reservas[Estado],A21,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="24">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E21" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
       </c>
       <c r="F21" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A21,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="16" t="s">
@@ -22702,7 +23420,7 @@
       </c>
       <c r="K21" s="33" t="str">
         <f>"Análise de Vendas "&amp;Estado</f>
-        <v>Análise de Vendas São Paulo</v>
+        <v>Análise de Vendas Bahia</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -22714,7 +23432,7 @@
       </c>
       <c r="B22" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A22,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1590</v>
       </c>
       <c r="C22" s="20">
         <f>COUNTIFS(Reservas[Estado],A22,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22722,15 +23440,15 @@
       </c>
       <c r="D22" s="20">
         <f>COUNTIFS(Reservas[Estado],A22,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="24">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E22" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
       </c>
       <c r="F22" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A22,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="16" t="s">
@@ -22755,23 +23473,23 @@
       </c>
       <c r="B23" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A23,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>26160</v>
+        <v>3635</v>
       </c>
       <c r="C23" s="20">
         <f>COUNTIFS(Reservas[Estado],A23,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" s="20">
         <f>COUNTIFS(Reservas[Estado],A23,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E23" s="24">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="F23" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A23,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4.666666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="K23" s="26">
         <v>1</v>
@@ -22788,7 +23506,7 @@
       </c>
       <c r="B24" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A24,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1660</v>
       </c>
       <c r="C24" s="20">
         <f>COUNTIFS(Reservas[Estado],A24,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22796,15 +23514,15 @@
       </c>
       <c r="D24" s="20">
         <f>COUNTIFS(Reservas[Estado],A24,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="24">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E24" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
       </c>
       <c r="F24" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A24,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24" s="33" t="s">
         <v>92</v>
@@ -22825,23 +23543,23 @@
       </c>
       <c r="B25" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A25,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>5105</v>
+        <v>5890</v>
       </c>
       <c r="C25" s="20">
         <f>COUNTIFS(Reservas[Estado],A25,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="20">
         <f>COUNTIFS(Reservas[Estado],A25,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A25,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25" s="27" t="s">
         <v>0</v>
@@ -22862,7 +23580,7 @@
       </c>
       <c r="B26" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A26,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>5678</v>
       </c>
       <c r="C26" s="20">
         <f>COUNTIFS(Reservas[Estado],A26,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22870,15 +23588,15 @@
       </c>
       <c r="D26" s="20">
         <f>COUNTIFS(Reservas[Estado],A26,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="24">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E26" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
       </c>
       <c r="F26" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A26,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" s="27" t="s">
         <v>1</v>
@@ -22899,7 +23617,7 @@
       </c>
       <c r="B27" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A27,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>8765</v>
       </c>
       <c r="C27" s="20">
         <f>COUNTIFS(Reservas[Estado],A27,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -22907,15 +23625,15 @@
       </c>
       <c r="D27" s="20">
         <f>COUNTIFS(Reservas[Estado],A27,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="24">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E27" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
       </c>
       <c r="F27" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A27,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27" s="27" t="s">
         <v>2</v>
@@ -22936,19 +23654,19 @@
       </c>
       <c r="B28" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A28,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>2535</v>
+        <v>11536</v>
       </c>
       <c r="C28" s="20">
         <f>COUNTIFS(Reservas[Estado],A28,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="20">
         <f>COUNTIFS(Reservas[Estado],A28,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A28,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
@@ -22973,11 +23691,11 @@
       </c>
       <c r="B29" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A29,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>26315</v>
+        <v>20857</v>
       </c>
       <c r="C29" s="20">
         <f>COUNTIFS(Reservas[Estado],A29,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="20">
         <f>COUNTIFS(Reservas[Estado],A29,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
@@ -22985,11 +23703,11 @@
       </c>
       <c r="E29" s="24">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F29" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A29,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4.333333333333333</v>
+        <v>4.5555555555555554</v>
       </c>
       <c r="K29" s="26">
         <v>7</v>
@@ -23006,7 +23724,7 @@
       </c>
       <c r="B30" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A30,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1730</v>
       </c>
       <c r="C30" s="20">
         <f>COUNTIFS(Reservas[Estado],A30,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -23014,15 +23732,15 @@
       </c>
       <c r="D30" s="20">
         <f>COUNTIFS(Reservas[Estado],A30,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="24">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E30" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>0%</v>
       </c>
       <c r="F30" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A30,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H30" s="33" t="s">
         <v>95</v>
@@ -23043,23 +23761,23 @@
       </c>
       <c r="B31" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A31,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="C31" s="20">
         <f>COUNTIFS(Reservas[Estado],A31,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="20">
         <f>COUNTIFS(Reservas[Estado],A31,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="E31" s="24">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>1</v>
       </c>
       <c r="F31" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A31,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H31" s="27" t="s">
         <v>0</v>
@@ -23167,7 +23885,7 @@
   </sheetPr>
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q7:Q8"/>
     </sheetView>
   </sheetViews>

--- a/dashboards_II.xlsx
+++ b/dashboards_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Git/04. DashBoard Especialista/02.Dashboard 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C8A0B96-FBE7-4EF5-981A-48572FA5E545}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AFF9C96-C7F0-4FA9-9E94-4CC16526329D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
   </bookViews>
@@ -811,6 +811,275 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Auxiliar!$N$10:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.38461538461538464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2731-46F6-B7CB-AFAB3419BD42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2086751167"/>
+        <c:axId val="2080678463"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2086751167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2080678463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2080678463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2086751167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -871,6 +1140,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1418,8 +1727,524 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$I$6" fmlaRange="ListaEstados" sel="5" val="3"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$I$6" fmlaRange="ListaEstados" sel="19" val="13"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1427,7 +2252,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$L$5" fmlaRange="ListaMeses" sel="3" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$L$5" fmlaRange="ListaMeses" sel="10" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2187,16 +3012,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>39220</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>43702</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>344020</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>204508</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>509308</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
@@ -2205,7 +3030,7 @@
             <xdr:cNvPr id="2" name="Gráfico 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F307CD2F-5895-68C9-DCA5-0C603B1F512A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2232,7 +3057,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="648820" y="558052"/>
+              <a:off x="344020" y="453277"/>
               <a:ext cx="3213288" cy="1927973"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2261,6 +3086,42 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>185458</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>149598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D426E5-CC72-9DEE-6236-90D536D5831C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -22654,8 +23515,8 @@
   </sheetPr>
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22780,7 +23641,7 @@
       </c>
       <c r="I5" s="35" t="str" cm="1">
         <f t="array" ref="I5">INDEX(Auxiliar!ListaEstados,Auxiliar!IndiceEstado)</f>
-        <v>Bahia</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="23" cm="1">
@@ -22788,7 +23649,7 @@
         <v>2018</v>
       </c>
       <c r="L5" s="30">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -22819,7 +23680,7 @@
         <v>56</v>
       </c>
       <c r="I6" s="37">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J6" s="37"/>
       <c r="K6" s="30">
@@ -22950,15 +23811,15 @@
       </c>
       <c r="L10" s="17" t="str">
         <f>IF(M10&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M10,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Pernambuco</v>
+        <v>São Paulo</v>
       </c>
       <c r="M10" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K10)</f>
-        <v>21340</v>
+        <v>39091</v>
       </c>
       <c r="N10" s="24">
         <f>IFERROR(VLOOKUP(L10,$A$4:$F$31,5,0),"0%")</f>
-        <v>0</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -22967,11 +23828,11 @@
       </c>
       <c r="B11" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A11,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>4055</v>
+        <v>11921</v>
       </c>
       <c r="C11" s="20">
         <f>COUNTIFS(Reservas[Estado],A11,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="20">
         <f>COUNTIFS(Reservas[Estado],A11,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
@@ -22979,11 +23840,11 @@
       </c>
       <c r="E11" s="24">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A11,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H11" s="19">
         <v>2018</v>
@@ -22996,15 +23857,15 @@
       </c>
       <c r="L11" s="17" t="str">
         <f>IF(M11&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M11,Auxiliar!ListaVendas,0)),"")</f>
-        <v>São Paulo</v>
+        <v>Rio de Janeiro</v>
       </c>
       <c r="M11" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K11)</f>
-        <v>20857</v>
+        <v>32535</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" ref="N11:N19" si="1">IFERROR(VLOOKUP(L11,$A$4:$F$31,5,0),"0%")</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -23013,19 +23874,19 @@
       </c>
       <c r="B12" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A12,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>11682</v>
+        <v>16294</v>
       </c>
       <c r="C12" s="20">
         <f>COUNTIFS(Reservas[Estado],A12,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="20">
         <f>COUNTIFS(Reservas[Estado],A12,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A12,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
@@ -23042,15 +23903,15 @@
       </c>
       <c r="L12" s="17" t="str">
         <f>IF(M12&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M12,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Espírito Santo</v>
+        <v>Minas Gerais</v>
       </c>
       <c r="M12" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K12)</f>
-        <v>11682</v>
+        <v>18677</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -23086,11 +23947,11 @@
       </c>
       <c r="L13" s="17" t="str">
         <f>IF(M13&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M13,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Santa Catarina</v>
+        <v>Rio Grande do Sul</v>
       </c>
       <c r="M13" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K13)</f>
-        <v>11536</v>
+        <v>17732</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
@@ -23130,15 +23991,15 @@
       </c>
       <c r="L14" s="17" t="str">
         <f>IF(M14&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M14,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Minas Gerais</v>
+        <v>Espírito Santo</v>
       </c>
       <c r="M14" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K14)</f>
-        <v>9350</v>
+        <v>16294</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -23147,23 +24008,23 @@
       </c>
       <c r="B15" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A15,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1345</v>
+        <v>0</v>
       </c>
       <c r="C15" s="20">
         <f>COUNTIFS(Reservas[Estado],A15,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="20">
         <f>COUNTIFS(Reservas[Estado],A15,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0%</v>
       </c>
       <c r="F15" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A15,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="16" t="s">
@@ -23174,11 +24035,11 @@
       </c>
       <c r="L15" s="17" t="str">
         <f>IF(M15&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M15,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Roraima</v>
+        <v>Distrito Federal</v>
       </c>
       <c r="M15" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K15)</f>
-        <v>8765</v>
+        <v>11921</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="1"/>
@@ -23191,7 +24052,7 @@
       </c>
       <c r="B16" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A16,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="C16" s="20">
         <f>COUNTIFS(Reservas[Estado],A16,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -23199,15 +24060,15 @@
       </c>
       <c r="D16" s="20">
         <f>COUNTIFS(Reservas[Estado],A16,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
       <c r="F16" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A16,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="16" t="s">
@@ -23218,15 +24079,15 @@
       </c>
       <c r="L16" s="17" t="str">
         <f>IF(M16&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M16,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Rio Grande do Sul</v>
+        <v>Santa Catarina</v>
       </c>
       <c r="M16" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K16)</f>
-        <v>5890</v>
+        <v>7896</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -23235,23 +24096,23 @@
       </c>
       <c r="B17" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A17,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>9350</v>
+        <v>18677</v>
       </c>
       <c r="C17" s="20">
         <f>COUNTIFS(Reservas[Estado],A17,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="20">
         <f>COUNTIFS(Reservas[Estado],A17,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="24">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A17,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4.4000000000000004</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="16" t="s">
@@ -23262,11 +24123,11 @@
       </c>
       <c r="L17" s="17" t="str">
         <f>IF(M17&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M17,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Paraíba</v>
+        <v>Pernambuco</v>
       </c>
       <c r="M17" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K17)</f>
-        <v>5678</v>
+        <v>2430</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
@@ -23279,23 +24140,23 @@
       </c>
       <c r="B18" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A18,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="C18" s="20">
         <f>COUNTIFS(Reservas[Estado],A18,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="20">
         <f>COUNTIFS(Reservas[Estado],A18,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="24">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0%</v>
       </c>
       <c r="F18" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A18,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="16" t="s">
@@ -23306,15 +24167,15 @@
       </c>
       <c r="L18" s="17" t="str">
         <f>IF(M18&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M18,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Paraíba</v>
+        <v/>
       </c>
       <c r="M18" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K18)</f>
-        <v>5678</v>
-      </c>
-      <c r="N18" s="24">
+        <v>0</v>
+      </c>
+      <c r="N18" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -23323,7 +24184,7 @@
       </c>
       <c r="B19" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A19,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>5678</v>
+        <v>0</v>
       </c>
       <c r="C19" s="20">
         <f>COUNTIFS(Reservas[Estado],A19,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -23331,15 +24192,15 @@
       </c>
       <c r="D19" s="20">
         <f>COUNTIFS(Reservas[Estado],A19,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="24">
+        <v>0</v>
+      </c>
+      <c r="E19" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
       <c r="F19" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A19,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="16" t="s">
@@ -23350,15 +24211,15 @@
       </c>
       <c r="L19" s="17" t="str">
         <f>IF(M19&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M19,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Paraná</v>
+        <v/>
       </c>
       <c r="M19" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K19)</f>
-        <v>4983</v>
-      </c>
-      <c r="N19" s="24">
+        <v>0</v>
+      </c>
+      <c r="N19" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -23367,7 +24228,7 @@
       </c>
       <c r="B20" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A20,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>4983</v>
+        <v>0</v>
       </c>
       <c r="C20" s="20">
         <f>COUNTIFS(Reservas[Estado],A20,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -23375,15 +24236,15 @@
       </c>
       <c r="D20" s="20">
         <f>COUNTIFS(Reservas[Estado],A20,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
       <c r="F20" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A20,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="16" t="s">
@@ -23396,7 +24257,7 @@
       </c>
       <c r="B21" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A21,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>21340</v>
+        <v>2430</v>
       </c>
       <c r="C21" s="20">
         <f>COUNTIFS(Reservas[Estado],A21,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -23404,7 +24265,7 @@
       </c>
       <c r="D21" s="20">
         <f>COUNTIFS(Reservas[Estado],A21,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" s="24">
         <f t="shared" si="0"/>
@@ -23412,7 +24273,7 @@
       </c>
       <c r="F21" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A21,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="16" t="s">
@@ -23420,7 +24281,7 @@
       </c>
       <c r="K21" s="33" t="str">
         <f>"Análise de Vendas "&amp;Estado</f>
-        <v>Análise de Vendas Bahia</v>
+        <v>Análise de Vendas Rio de Janeiro</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -23432,7 +24293,7 @@
       </c>
       <c r="B22" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A22,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1590</v>
+        <v>0</v>
       </c>
       <c r="C22" s="20">
         <f>COUNTIFS(Reservas[Estado],A22,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -23440,15 +24301,15 @@
       </c>
       <c r="D22" s="20">
         <f>COUNTIFS(Reservas[Estado],A22,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
       <c r="F22" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A22,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="16" t="s">
@@ -23473,23 +24334,23 @@
       </c>
       <c r="B23" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A23,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>3635</v>
+        <v>32535</v>
       </c>
       <c r="C23" s="20">
         <f>COUNTIFS(Reservas[Estado],A23,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="20">
         <f>COUNTIFS(Reservas[Estado],A23,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E23" s="24">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F23" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A23,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K23" s="26">
         <v>1</v>
@@ -23497,8 +24358,14 @@
       <c r="L23" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="20"/>
+      <c r="M23" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K23)</f>
+        <v>3915</v>
+      </c>
+      <c r="N23" s="20">
+        <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K23)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="17" t="s">
@@ -23506,7 +24373,7 @@
       </c>
       <c r="B24" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A24,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1660</v>
+        <v>0</v>
       </c>
       <c r="C24" s="20">
         <f>COUNTIFS(Reservas[Estado],A24,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -23514,15 +24381,15 @@
       </c>
       <c r="D24" s="20">
         <f>COUNTIFS(Reservas[Estado],A24,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
       <c r="F24" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A24,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H24" s="33" t="s">
         <v>92</v>
@@ -23534,8 +24401,14 @@
       <c r="L24" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="20"/>
+      <c r="M24" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K24)</f>
+        <v>33513</v>
+      </c>
+      <c r="N24" s="20">
+        <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K24)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="17" t="s">
@@ -23543,36 +24416,45 @@
       </c>
       <c r="B25" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A25,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>5890</v>
+        <v>17732</v>
       </c>
       <c r="C25" s="20">
         <f>COUNTIFS(Reservas[Estado],A25,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D25" s="20">
         <f>COUNTIFS(Reservas[Estado],A25,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A25,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H25" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="16"/>
+      <c r="I25" s="16">
+        <f>SUMIFS(Reservas[Valor Total], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Vendedor],H25)</f>
+        <v>38668</v>
+      </c>
       <c r="K25" s="26">
         <v>3</v>
       </c>
       <c r="L25" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M25" s="16"/>
-      <c r="N25" s="20"/>
+      <c r="M25" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K25)</f>
+        <v>3635</v>
+      </c>
+      <c r="N25" s="20">
+        <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K25)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="17" t="s">
@@ -23580,7 +24462,7 @@
       </c>
       <c r="B26" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A26,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>5678</v>
+        <v>0</v>
       </c>
       <c r="C26" s="20">
         <f>COUNTIFS(Reservas[Estado],A26,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -23588,28 +24470,37 @@
       </c>
       <c r="D26" s="20">
         <f>COUNTIFS(Reservas[Estado],A26,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
       <c r="F26" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A26,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="16"/>
+      <c r="I26" s="16">
+        <f>SUMIFS(Reservas[Valor Total], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Vendedor],H26)</f>
+        <v>38673</v>
+      </c>
       <c r="K26" s="26">
         <v>4</v>
       </c>
       <c r="L26" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="M26" s="16"/>
-      <c r="N26" s="20"/>
+      <c r="M26" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K26)</f>
+        <v>48244</v>
+      </c>
+      <c r="N26" s="20">
+        <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K26)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="17" t="s">
@@ -23617,7 +24508,7 @@
       </c>
       <c r="B27" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A27,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>8765</v>
+        <v>0</v>
       </c>
       <c r="C27" s="20">
         <f>COUNTIFS(Reservas[Estado],A27,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -23625,28 +24516,37 @@
       </c>
       <c r="D27" s="20">
         <f>COUNTIFS(Reservas[Estado],A27,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="24">
+        <v>0</v>
+      </c>
+      <c r="E27" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
       <c r="F27" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A27,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H27" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="16"/>
+      <c r="I27" s="16">
+        <f>SUMIFS(Reservas[Valor Total], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Vendedor],H27)</f>
+        <v>33094</v>
+      </c>
       <c r="K27" s="26">
         <v>5</v>
       </c>
       <c r="L27" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="M27" s="16"/>
-      <c r="N27" s="20"/>
+      <c r="M27" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K27)</f>
+        <v>4510</v>
+      </c>
+      <c r="N27" s="20">
+        <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K27)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="17" t="s">
@@ -23654,7 +24554,7 @@
       </c>
       <c r="B28" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A28,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>11536</v>
+        <v>7896</v>
       </c>
       <c r="C28" s="20">
         <f>COUNTIFS(Reservas[Estado],A28,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -23662,7 +24562,7 @@
       </c>
       <c r="D28" s="20">
         <f>COUNTIFS(Reservas[Estado],A28,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="24">
         <f t="shared" si="0"/>
@@ -23675,15 +24575,24 @@
       <c r="H28" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="16"/>
+      <c r="I28" s="16">
+        <f>SUMIFS(Reservas[Valor Total], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Vendedor],H28)</f>
+        <v>36141</v>
+      </c>
       <c r="K28" s="26">
         <v>6</v>
       </c>
       <c r="L28" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="M28" s="16"/>
-      <c r="N28" s="20"/>
+      <c r="M28" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K28)</f>
+        <v>33470</v>
+      </c>
+      <c r="N28" s="20">
+        <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K28)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="17" t="s">
@@ -23691,23 +24600,23 @@
       </c>
       <c r="B29" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A29,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>20857</v>
+        <v>39091</v>
       </c>
       <c r="C29" s="20">
         <f>COUNTIFS(Reservas[Estado],A29,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" s="20">
         <f>COUNTIFS(Reservas[Estado],A29,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E29" s="24">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="F29" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A29,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4.5555555555555554</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="K29" s="26">
         <v>7</v>
@@ -23715,8 +24624,14 @@
       <c r="L29" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="20"/>
+      <c r="M29" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K29)</f>
+        <v>2345</v>
+      </c>
+      <c r="N29" s="20">
+        <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K29)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="17" t="s">
@@ -23724,7 +24639,7 @@
       </c>
       <c r="B30" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A30,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1730</v>
+        <v>0</v>
       </c>
       <c r="C30" s="20">
         <f>COUNTIFS(Reservas[Estado],A30,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -23732,15 +24647,15 @@
       </c>
       <c r="D30" s="20">
         <f>COUNTIFS(Reservas[Estado],A30,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E30" s="24">
+        <v>0</v>
+      </c>
+      <c r="E30" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0%</v>
       </c>
       <c r="F30" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A30,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H30" s="33" t="s">
         <v>95</v>
@@ -23752,8 +24667,14 @@
       <c r="L30" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="M30" s="16"/>
-      <c r="N30" s="20"/>
+      <c r="M30" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K30)</f>
+        <v>26160</v>
+      </c>
+      <c r="N30" s="20">
+        <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K30)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="17" t="s">
@@ -23761,78 +24682,114 @@
       </c>
       <c r="B31" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A31,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="C31" s="20">
         <f>COUNTIFS(Reservas[Estado],A31,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="20">
         <f>COUNTIFS(Reservas[Estado],A31,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
-      </c>
-      <c r="E31" s="24">
+        <v>0</v>
+      </c>
+      <c r="E31" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0%</v>
       </c>
       <c r="F31" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A31,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H31" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="I31" s="16"/>
+      <c r="I31" s="16">
+        <f>SUMIFS(Reservas[Comissão], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Vendedor],H31)</f>
+        <v>1933.3999999999999</v>
+      </c>
       <c r="K31" s="26">
         <v>9</v>
       </c>
       <c r="L31" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="M31" s="16"/>
-      <c r="N31" s="20"/>
+      <c r="M31" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K31)</f>
+        <v>16373</v>
+      </c>
+      <c r="N31" s="20">
+        <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K31)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="H32" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I32" s="16"/>
+      <c r="I32" s="16">
+        <f>SUMIFS(Reservas[Comissão], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Vendedor],H32)</f>
+        <v>1933.65</v>
+      </c>
       <c r="K32" s="26">
         <v>10</v>
       </c>
       <c r="L32" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="M32" s="16"/>
-      <c r="N32" s="20"/>
+      <c r="M32" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K32)</f>
+        <v>32535</v>
+      </c>
+      <c r="N32" s="20">
+        <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K32)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="8:14">
       <c r="H33" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="16"/>
+      <c r="I33" s="16">
+        <f>SUMIFS(Reservas[Comissão], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Vendedor],H33)</f>
+        <v>1654.7</v>
+      </c>
       <c r="K33" s="26">
         <v>11</v>
       </c>
       <c r="L33" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="M33" s="16"/>
-      <c r="N33" s="20"/>
+      <c r="M33" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K33)</f>
+        <v>6100</v>
+      </c>
+      <c r="N33" s="20">
+        <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K33)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="8:14">
       <c r="H34" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="16"/>
+      <c r="I34" s="16">
+        <f>SUMIFS(Reservas[Comissão], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Vendedor],H34)</f>
+        <v>1807.05</v>
+      </c>
       <c r="K34" s="26">
         <v>12</v>
       </c>
       <c r="L34" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="16"/>
-      <c r="N34" s="20"/>
+      <c r="M34" s="16">
+        <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K34)</f>
+        <v>21510</v>
+      </c>
+      <c r="N34" s="20">
+        <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K34)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="8:14">
       <c r="H36" s="33" t="s">
@@ -23844,19 +24801,28 @@
       <c r="H37" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="16"/>
+      <c r="I37" s="16">
+        <f>SUMIFS(Reservas[Valor Total], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Forma Pagamento],H37)</f>
+        <v>106988</v>
+      </c>
     </row>
     <row r="38" spans="8:14">
       <c r="H38" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="16"/>
+      <c r="I38" s="16">
+        <f>SUMIFS(Reservas[Valor Total], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Forma Pagamento],H38)</f>
+        <v>21993</v>
+      </c>
     </row>
     <row r="39" spans="8:14">
       <c r="H39" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I39" s="16"/>
+      <c r="I39" s="16">
+        <f>SUMIFS(Reservas[Valor Total], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Forma Pagamento],H39)</f>
+        <v>17595</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -23886,7 +24852,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q7:Q8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/dashboards_II.xlsx
+++ b/dashboards_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Git/04. DashBoard Especialista/02.Dashboard 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AFF9C96-C7F0-4FA9-9E94-4CC16526329D}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD57A73E-1FCE-4B47-B381-73D088E70BC3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
   </bookViews>
@@ -1080,6 +1080,1371 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4DB8-4BF3-BD0A-EBBAD30CC9AF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4DB8-4BF3-BD0A-EBBAD30CC9AF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4DB8-4BF3-BD0A-EBBAD30CC9AF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Auxiliar!$H$37:$H$39</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cartão de Crédito</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Boleto Bancário</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Depósito Bancário</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Auxiliar!$I$37:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>_-"R$"\ * #,##0_-;\-"R$"\ * #,##0_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>106988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4DB8-4BF3-BD0A-EBBAD30CC9AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AA12-4709-B446-127D991F0310}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AA12-4709-B446-127D991F0310}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-AA12-4709-B446-127D991F0310}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-AA12-4709-B446-127D991F0310}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Auxiliar!$H$25:$H$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Priscila</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Carlos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Letícia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Patrícia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Auxiliar!$I$25:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>_-"R$"\ * #,##0_-;\-"R$"\ * #,##0_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>38668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33094</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-AA12-4709-B446-127D991F0310}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BE75-4641-9E94-C65894C14EA8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BE75-4641-9E94-C65894C14EA8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BE75-4641-9E94-C65894C14EA8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BE75-4641-9E94-C65894C14EA8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Auxiliar!$H$31:$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Priscila</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Carlos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Letícia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Patrícia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Auxiliar!$I$31:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>_-"R$"\ * #,##0_-;\-"R$"\ * #,##0_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1933.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1933.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1654.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1807.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-BE75-4641-9E94-C65894C14EA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Auxiliar!$L$23:$L$34</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Out</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Auxiliar!$M$23:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>_-"R$"\ * #,##0_-;\-"R$"\ * #,##0_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4510</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33470</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32535</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21510</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F8D-4806-AFA9-55DD6FB3A819}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2061097151"/>
+        <c:axId val="954871951"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Auxiliar!$L$23:$L$34</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Out</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Auxiliar!$N$23:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F8D-4806-AFA9-55DD6FB3A819}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2061094751"/>
+        <c:axId val="954874431"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2061097151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="954871951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="954871951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2061097151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="954874431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2061094751"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2061094751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="954874431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -1180,6 +2545,166 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2243,6 +3768,2079 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$I$6" fmlaRange="ListaEstados" sel="19" val="13"/>
 </file>
@@ -3106,7 +6704,7 @@
         <xdr:cNvPr id="3" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D426E5-CC72-9DEE-6236-90D536D5831C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,6 +6717,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>248210</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E27A9F19-E3C8-ED6B-3DE2-3D8C90F6158B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200586</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>109256</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9A639B-08DF-17C8-1F0D-4EC4F7F3635F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219635</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D300D3E1-6A24-7C52-2BC0-63F4F66CA999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>248209</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C724BE-F6A6-D510-C343-AD24DCB63E47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -23516,7 +27258,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="L23" sqref="L23:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24852,7 +28594,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/dashboards_II.xlsx
+++ b/dashboards_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Git/04. DashBoard Especialista/02.Dashboard 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD57A73E-1FCE-4B47-B381-73D088E70BC3}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23AAFD57-EE90-453E-AA17-2CFAC15FAB33}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
   </bookViews>
@@ -911,16 +911,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.38461538461538464</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -932,13 +932,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,37 +1094,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -1216,13 +1186,13 @@
                 <c:formatCode>_-"R$"\ * #,##0_-;\-"R$"\ * #,##0_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>106988</c:v>
+                  <c:v>76050</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21993</c:v>
+                  <c:v>13430</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17595</c:v>
+                  <c:v>10195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,16 +1482,16 @@
                 <c:formatCode>_-"R$"\ * #,##0_-;\-"R$"\ * #,##0_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>38668</c:v>
+                  <c:v>26440</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38673</c:v>
+                  <c:v>26440</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33094</c:v>
+                  <c:v>13570</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36141</c:v>
+                  <c:v>33225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1812,16 +1782,16 @@
                 <c:formatCode>_-"R$"\ * #,##0_-;\-"R$"\ * #,##0_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1933.3999999999999</c:v>
+                  <c:v>1322</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1933.65</c:v>
+                  <c:v>1322</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1654.7</c:v>
+                  <c:v>678.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1807.05</c:v>
+                  <c:v>1661.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,6 +1931,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Auxiliar!$L$23:$L$34</c:f>
@@ -2012,40 +2039,40 @@
                 <c:formatCode>_-"R$"\ * #,##0_-;\-"R$"\ * #,##0_-;_-"R$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3915</c:v>
+                  <c:v>8935</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33513</c:v>
+                  <c:v>30545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3635</c:v>
+                  <c:v>20857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48244</c:v>
+                  <c:v>22951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4510</c:v>
+                  <c:v>13740</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33470</c:v>
+                  <c:v>36670</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2345</c:v>
+                  <c:v>12213</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26160</c:v>
+                  <c:v>26315</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16373</c:v>
+                  <c:v>16093</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32535</c:v>
+                  <c:v>39091</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6100</c:v>
+                  <c:v>6800</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21510</c:v>
+                  <c:v>26475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2058,7 +2085,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2086,6 +2113,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Auxiliar!$L$23:$L$34</c:f>
@@ -2137,45 +2221,45 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1F8D-4806-AFA9-55DD6FB3A819}"/>
@@ -2184,7 +2268,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2402,7 +2486,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="span"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2458,34 +2542,6 @@
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>10 Principais Estados Vendas</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>10 Principais Estados Vendas</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="funnel" uniqueId="{0CE54EC0-5959-429E-8085-5EC98614EF17}">
@@ -5842,7 +5898,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$I$6" fmlaRange="ListaEstados" sel="19" val="13"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$I$6" fmlaRange="ListaEstados" sel="25" val="19"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5850,7 +5906,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$L$5" fmlaRange="ListaMeses" sel="10" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="12" dropStyle="combo" dx="16" fmlaLink="Auxiliar!$L$5" fmlaRange="ListaMeses" sel="12" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6611,15 +6667,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>344020</xdr:colOff>
+      <xdr:colOff>139912</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>129427</xdr:rowOff>
+      <xdr:rowOff>183856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>509308</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>305200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
@@ -6655,8 +6711,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="344020" y="453277"/>
-              <a:ext cx="3213288" cy="1927973"/>
+              <a:off x="139912" y="510427"/>
+              <a:ext cx="3226895" cy="1927973"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6740,7 +6796,7 @@
         <xdr:cNvPr id="4" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E27A9F19-E3C8-ED6B-3DE2-3D8C90F6158B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6776,7 +6832,7 @@
         <xdr:cNvPr id="5" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9A639B-08DF-17C8-1F0D-4EC4F7F3635F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6812,7 +6868,7 @@
         <xdr:cNvPr id="6" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D300D3E1-6A24-7C52-2BC0-63F4F66CA999}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6848,7 +6904,7 @@
         <xdr:cNvPr id="7" name="Gráfico 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C724BE-F6A6-D510-C343-AD24DCB63E47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27257,7 +27313,7 @@
   </sheetPr>
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L23" sqref="L23:N34"/>
     </sheetView>
   </sheetViews>
@@ -27383,7 +27439,7 @@
       </c>
       <c r="I5" s="35" t="str" cm="1">
         <f t="array" ref="I5">INDEX(Auxiliar!ListaEstados,Auxiliar!IndiceEstado)</f>
-        <v>Rio de Janeiro</v>
+        <v>São Paulo</v>
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="23" cm="1">
@@ -27391,7 +27447,7 @@
         <v>2018</v>
       </c>
       <c r="L5" s="30">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -27422,7 +27478,7 @@
         <v>56</v>
       </c>
       <c r="I6" s="37">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J6" s="37"/>
       <c r="K6" s="30">
@@ -27557,11 +27613,11 @@
       </c>
       <c r="M10" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K10)</f>
-        <v>39091</v>
+        <v>26475</v>
       </c>
       <c r="N10" s="24">
         <f>IFERROR(VLOOKUP(L10,$A$4:$F$31,5,0),"0%")</f>
-        <v>0.38461538461538464</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -27570,7 +27626,7 @@
       </c>
       <c r="B11" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A11,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>11921</v>
+        <v>6295</v>
       </c>
       <c r="C11" s="20">
         <f>COUNTIFS(Reservas[Estado],A11,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -27603,11 +27659,11 @@
       </c>
       <c r="M11" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K11)</f>
-        <v>32535</v>
+        <v>21510</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" ref="N11:N19" si="1">IFERROR(VLOOKUP(L11,$A$4:$F$31,5,0),"0%")</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -27616,23 +27672,23 @@
       </c>
       <c r="B12" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A12,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>16294</v>
+        <v>10685</v>
       </c>
       <c r="C12" s="20">
         <f>COUNTIFS(Reservas[Estado],A12,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="20">
         <f>COUNTIFS(Reservas[Estado],A12,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="24">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F12" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A12,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="H12" s="19">
         <v>2019</v>
@@ -27649,7 +27705,7 @@
       </c>
       <c r="M12" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K12)</f>
-        <v>18677</v>
+        <v>13465</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="1"/>
@@ -27689,15 +27745,15 @@
       </c>
       <c r="L13" s="17" t="str">
         <f>IF(M13&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M13,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Rio Grande do Sul</v>
+        <v>Espírito Santo</v>
       </c>
       <c r="M13" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K13)</f>
-        <v>17732</v>
+        <v>10685</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -27733,11 +27789,11 @@
       </c>
       <c r="L14" s="17" t="str">
         <f>IF(M14&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M14,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Espírito Santo</v>
+        <v>Rio Grande do Sul</v>
       </c>
       <c r="M14" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K14)</f>
-        <v>16294</v>
+        <v>6435</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
@@ -27781,7 +27837,7 @@
       </c>
       <c r="M15" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K15)</f>
-        <v>11921</v>
+        <v>6295</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="1"/>
@@ -27821,11 +27877,11 @@
       </c>
       <c r="L16" s="17" t="str">
         <f>IF(M16&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M16,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Santa Catarina</v>
+        <v>Pernambuco</v>
       </c>
       <c r="M16" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K16)</f>
-        <v>7896</v>
+        <v>5840</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
@@ -27838,15 +27894,15 @@
       </c>
       <c r="B17" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A17,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>18677</v>
+        <v>13465</v>
       </c>
       <c r="C17" s="20">
         <f>COUNTIFS(Reservas[Estado],A17,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="20">
         <f>COUNTIFS(Reservas[Estado],A17,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" s="24">
         <f t="shared" si="0"/>
@@ -27854,7 +27910,7 @@
       </c>
       <c r="F17" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A17,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4.833333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="16" t="s">
@@ -27865,15 +27921,15 @@
       </c>
       <c r="L17" s="17" t="str">
         <f>IF(M17&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M17,Auxiliar!ListaVendas,0)),"")</f>
-        <v>Pernambuco</v>
+        <v>Santa Catarina</v>
       </c>
       <c r="M17" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K17)</f>
-        <v>2430</v>
+        <v>3200</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -27909,15 +27965,15 @@
       </c>
       <c r="L18" s="17" t="str">
         <f>IF(M18&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M18,Auxiliar!ListaVendas,0)),"")</f>
-        <v/>
+        <v>Tocantins</v>
       </c>
       <c r="M18" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K18)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="24" t="str">
+        <v>2920</v>
+      </c>
+      <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>0%</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -27953,15 +28009,15 @@
       </c>
       <c r="L19" s="17" t="str">
         <f>IF(M19&gt;0,INDEX(Auxiliar!ListaEstados,MATCH(M19,Auxiliar!ListaVendas,0)),"")</f>
-        <v/>
+        <v>Sergipe</v>
       </c>
       <c r="M19" s="16">
         <f>LARGE(Auxiliar!ListaVendas,K19)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="24" t="str">
+        <v>2850</v>
+      </c>
+      <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>0%</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -27999,7 +28055,7 @@
       </c>
       <c r="B21" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A21,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>2430</v>
+        <v>5840</v>
       </c>
       <c r="C21" s="20">
         <f>COUNTIFS(Reservas[Estado],A21,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -28007,7 +28063,7 @@
       </c>
       <c r="D21" s="20">
         <f>COUNTIFS(Reservas[Estado],A21,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="24">
         <f t="shared" si="0"/>
@@ -28015,7 +28071,7 @@
       </c>
       <c r="F21" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A21,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="16" t="s">
@@ -28023,7 +28079,7 @@
       </c>
       <c r="K21" s="33" t="str">
         <f>"Análise de Vendas "&amp;Estado</f>
-        <v>Análise de Vendas Rio de Janeiro</v>
+        <v>Análise de Vendas São Paulo</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -28076,7 +28132,7 @@
       </c>
       <c r="B23" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A23,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>32535</v>
+        <v>21510</v>
       </c>
       <c r="C23" s="20">
         <f>COUNTIFS(Reservas[Estado],A23,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
@@ -28084,15 +28140,15 @@
       </c>
       <c r="D23" s="20">
         <f>COUNTIFS(Reservas[Estado],A23,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E23" s="24">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F23" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A23,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="K23" s="26">
         <v>1</v>
@@ -28102,11 +28158,11 @@
       </c>
       <c r="M23" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K23)</f>
-        <v>3915</v>
+        <v>8935</v>
       </c>
       <c r="N23" s="20">
         <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K23)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -28145,7 +28201,7 @@
       </c>
       <c r="M24" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K24)</f>
-        <v>33513</v>
+        <v>30545</v>
       </c>
       <c r="N24" s="20">
         <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K24)</f>
@@ -28158,11 +28214,11 @@
       </c>
       <c r="B25" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A25,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>17732</v>
+        <v>6435</v>
       </c>
       <c r="C25" s="20">
         <f>COUNTIFS(Reservas[Estado],A25,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="20">
         <f>COUNTIFS(Reservas[Estado],A25,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
@@ -28170,18 +28226,18 @@
       </c>
       <c r="E25" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F25" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A25,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H25" s="27" t="s">
         <v>0</v>
       </c>
       <c r="I25" s="16">
         <f>SUMIFS(Reservas[Valor Total], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Vendedor],H25)</f>
-        <v>38668</v>
+        <v>26440</v>
       </c>
       <c r="K25" s="26">
         <v>3</v>
@@ -28191,11 +28247,11 @@
       </c>
       <c r="M25" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K25)</f>
-        <v>3635</v>
+        <v>20857</v>
       </c>
       <c r="N25" s="20">
         <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K25)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -28227,7 +28283,7 @@
       </c>
       <c r="I26" s="16">
         <f>SUMIFS(Reservas[Valor Total], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Vendedor],H26)</f>
-        <v>38673</v>
+        <v>26440</v>
       </c>
       <c r="K26" s="26">
         <v>4</v>
@@ -28237,11 +28293,11 @@
       </c>
       <c r="M26" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K26)</f>
-        <v>48244</v>
+        <v>22951</v>
       </c>
       <c r="N26" s="20">
         <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K26)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -28273,7 +28329,7 @@
       </c>
       <c r="I27" s="16">
         <f>SUMIFS(Reservas[Valor Total], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Vendedor],H27)</f>
-        <v>33094</v>
+        <v>13570</v>
       </c>
       <c r="K27" s="26">
         <v>5</v>
@@ -28283,11 +28339,11 @@
       </c>
       <c r="M27" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K27)</f>
-        <v>4510</v>
+        <v>13740</v>
       </c>
       <c r="N27" s="20">
         <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K27)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -28296,11 +28352,11 @@
       </c>
       <c r="B28" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A28,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>7896</v>
+        <v>3200</v>
       </c>
       <c r="C28" s="20">
         <f>COUNTIFS(Reservas[Estado],A28,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="20">
         <f>COUNTIFS(Reservas[Estado],A28,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
@@ -28308,7 +28364,7 @@
       </c>
       <c r="E28" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A28,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
@@ -28319,7 +28375,7 @@
       </c>
       <c r="I28" s="16">
         <f>SUMIFS(Reservas[Valor Total], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Vendedor],H28)</f>
-        <v>36141</v>
+        <v>33225</v>
       </c>
       <c r="K28" s="26">
         <v>6</v>
@@ -28329,11 +28385,11 @@
       </c>
       <c r="M28" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K28)</f>
-        <v>33470</v>
+        <v>36670</v>
       </c>
       <c r="N28" s="20">
         <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K28)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -28342,23 +28398,23 @@
       </c>
       <c r="B29" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A29,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>39091</v>
+        <v>26475</v>
       </c>
       <c r="C29" s="20">
         <f>COUNTIFS(Reservas[Estado],A29,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" s="20">
         <f>COUNTIFS(Reservas[Estado],A29,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E29" s="24">
         <f t="shared" si="0"/>
-        <v>0.38461538461538464</v>
+        <v>0.375</v>
       </c>
       <c r="F29" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A29,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>4.615384615384615</v>
+        <v>4.5</v>
       </c>
       <c r="K29" s="26">
         <v>7</v>
@@ -28368,11 +28424,11 @@
       </c>
       <c r="M29" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K29)</f>
-        <v>2345</v>
+        <v>12213</v>
       </c>
       <c r="N29" s="20">
         <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K29)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -28381,23 +28437,23 @@
       </c>
       <c r="B30" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A30,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>2850</v>
       </c>
       <c r="C30" s="20">
         <f>COUNTIFS(Reservas[Estado],A30,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="20">
         <f>COUNTIFS(Reservas[Estado],A30,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="E30" s="24">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>1</v>
       </c>
       <c r="F30" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A30,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30" s="33" t="s">
         <v>95</v>
@@ -28411,7 +28467,7 @@
       </c>
       <c r="M30" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K30)</f>
-        <v>26160</v>
+        <v>26315</v>
       </c>
       <c r="N30" s="20">
         <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K30)</f>
@@ -28424,30 +28480,30 @@
       </c>
       <c r="B31" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],A31,Reservas[Ano],Ano,Reservas[Mês],Mes)</f>
-        <v>0</v>
+        <v>2920</v>
       </c>
       <c r="C31" s="20">
         <f>COUNTIFS(Reservas[Estado],A31,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Status],"Cancelada")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="20">
         <f>COUNTIFS(Reservas[Estado],A31,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="E31" s="24">
         <f t="shared" si="0"/>
-        <v>0%</v>
+        <v>1</v>
       </c>
       <c r="F31" s="25">
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A31,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H31" s="27" t="s">
         <v>0</v>
       </c>
       <c r="I31" s="16">
         <f>SUMIFS(Reservas[Comissão], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Vendedor],H31)</f>
-        <v>1933.3999999999999</v>
+        <v>1322</v>
       </c>
       <c r="K31" s="26">
         <v>9</v>
@@ -28457,11 +28513,11 @@
       </c>
       <c r="M31" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K31)</f>
-        <v>16373</v>
+        <v>16093</v>
       </c>
       <c r="N31" s="20">
         <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K31)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -28470,7 +28526,7 @@
       </c>
       <c r="I32" s="16">
         <f>SUMIFS(Reservas[Comissão], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Vendedor],H32)</f>
-        <v>1933.65</v>
+        <v>1322</v>
       </c>
       <c r="K32" s="26">
         <v>10</v>
@@ -28480,11 +28536,11 @@
       </c>
       <c r="M32" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K32)</f>
-        <v>32535</v>
+        <v>39091</v>
       </c>
       <c r="N32" s="20">
         <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K32)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="8:14">
@@ -28493,7 +28549,7 @@
       </c>
       <c r="I33" s="16">
         <f>SUMIFS(Reservas[Comissão], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Vendedor],H33)</f>
-        <v>1654.7</v>
+        <v>678.5</v>
       </c>
       <c r="K33" s="26">
         <v>11</v>
@@ -28503,7 +28559,7 @@
       </c>
       <c r="M33" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K33)</f>
-        <v>6100</v>
+        <v>6800</v>
       </c>
       <c r="N33" s="20">
         <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K33)</f>
@@ -28516,7 +28572,7 @@
       </c>
       <c r="I34" s="16">
         <f>SUMIFS(Reservas[Comissão], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Vendedor],H34)</f>
-        <v>1807.05</v>
+        <v>1661.25</v>
       </c>
       <c r="K34" s="26">
         <v>12</v>
@@ -28526,11 +28582,11 @@
       </c>
       <c r="M34" s="16">
         <f>SUMIFS(Reservas[Valor Total],Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Auxiliar!Ano,Reservas[Mês],K34)</f>
-        <v>21510</v>
+        <v>26475</v>
       </c>
       <c r="N34" s="20">
         <f>COUNTIFS(Reservas[Estado],Auxiliar!Estado,Reservas[Ano],Ano,Reservas[Mês],K34)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="8:14">
@@ -28545,7 +28601,7 @@
       </c>
       <c r="I37" s="16">
         <f>SUMIFS(Reservas[Valor Total], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Forma Pagamento],H37)</f>
-        <v>106988</v>
+        <v>76050</v>
       </c>
     </row>
     <row r="38" spans="8:14">
@@ -28554,7 +28610,7 @@
       </c>
       <c r="I38" s="16">
         <f>SUMIFS(Reservas[Valor Total], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Forma Pagamento],H38)</f>
-        <v>21993</v>
+        <v>13430</v>
       </c>
     </row>
     <row r="39" spans="8:14">
@@ -28563,7 +28619,7 @@
       </c>
       <c r="I39" s="16">
         <f>SUMIFS(Reservas[Valor Total], Reservas[Ano],Auxiliar!Ano,Reservas[Mês],Auxiliar!Mes,Reservas[Forma Pagamento],H39)</f>
-        <v>17595</v>
+        <v>10195</v>
       </c>
     </row>
   </sheetData>
@@ -28593,8 +28649,8 @@
   </sheetPr>
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/dashboards_II.xlsx
+++ b/dashboards_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c548d412d6f19400/Área de Trabalho/Alura/excel/Projetos Git/04. DashBoard Especialista/02.Dashboard 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23AAFD57-EE90-453E-AA17-2CFAC15FAB33}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="13_ncr:1_{8621F33A-E581-4B2B-8C24-DD17DCFBD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3D7CD15-E168-4BF1-8466-4607718C46A3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{18B12833-7551-4467-B611-A6E8F662E40B}"/>
   </bookViews>
@@ -460,7 +460,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,8 +497,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -548,11 +554,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -627,7 +713,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -658,6 +743,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,16 +1153,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1265,16 +1363,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1565,16 +1656,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1865,16 +1949,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2497,16 +2574,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2557,6 +2627,12 @@
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
+  <cx:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -6494,14 +6570,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>13</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>600075</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>914400</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>914399</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
@@ -6552,13 +6628,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>15</xdr:col>
+          <xdr:col>17</xdr:col>
           <xdr:colOff>1000125</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
+          <xdr:col>18</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
@@ -6610,14 +6686,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>16</xdr:col>
+          <xdr:col>18</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>485776</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
@@ -6666,16 +6742,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>139912</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>183856</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>305200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>16329</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
@@ -6711,8 +6787,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="139912" y="510427"/>
-              <a:ext cx="3226895" cy="1927973"/>
+              <a:off x="734786" y="551249"/>
+              <a:ext cx="3456214" cy="1789180"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6744,16 +6820,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>185458</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>149598</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>67955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6780,16 +6856,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>248210</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>14007</xdr:rowOff>
+      <xdr:rowOff>401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6816,16 +6892,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200586</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91729</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>46266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
+      <xdr:colOff>449035</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>109256</xdr:rowOff>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6852,16 +6928,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219635</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>29135</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>24492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>503464</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6888,16 +6964,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>248209</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>127186</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>572860</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7424,17 +7500,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
@@ -7476,16 +7552,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -7724,20 +7800,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -27313,7 +27389,7 @@
   </sheetPr>
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L23" sqref="L23:N34"/>
     </sheetView>
   </sheetViews>
@@ -27341,68 +27417,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="H3" s="33" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="H3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="29"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="34"/>
+      <c r="J4" s="33"/>
       <c r="K4" s="2" t="s">
         <v>53</v>
       </c>
@@ -27437,16 +27513,16 @@
       <c r="H5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="35" t="str" cm="1">
+      <c r="I5" s="34" t="str" cm="1">
         <f t="array" ref="I5">INDEX(Auxiliar!ListaEstados,Auxiliar!IndiceEstado)</f>
         <v>São Paulo</v>
       </c>
-      <c r="J5" s="36"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="23" cm="1">
         <f t="array" ref="K5">INDEX(Auxiliar!ListaAnos,Auxiliar!IndiceAno)</f>
         <v>2018</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="29">
         <v>12</v>
       </c>
     </row>
@@ -27477,11 +27553,11 @@
       <c r="H6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="36">
         <v>25</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="30">
+      <c r="J6" s="36"/>
+      <c r="K6" s="29">
         <v>1</v>
       </c>
     </row>
@@ -27559,18 +27635,18 @@
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A9,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="K9" s="38" t="s">
+      <c r="I9" s="32"/>
+      <c r="K9" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="29" t="s">
+      <c r="L9" s="37"/>
+      <c r="M9" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="N9" s="28" t="s">
         <v>94</v>
       </c>
     </row>
@@ -28077,13 +28153,13 @@
       <c r="I21" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="33" t="str">
+      <c r="K21" s="32" t="str">
         <f>"Análise de Vendas "&amp;Estado</f>
         <v>Análise de Vendas São Paulo</v>
       </c>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="17" t="s">
@@ -28189,10 +28265,10 @@
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A24,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="I24" s="33"/>
+      <c r="I24" s="32"/>
       <c r="K24" s="26">
         <v>2</v>
       </c>
@@ -28455,10 +28531,10 @@
         <f>IFERROR(AVERAGEIFS(Reservas[Avaliação],Reservas[Estado],A30,Reservas[Ano],Ano,Reservas[Mês],Auxiliar!Mes),0)</f>
         <v>5</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="33"/>
+      <c r="I30" s="32"/>
       <c r="K30" s="26">
         <v>8</v>
       </c>
@@ -28590,10 +28666,10 @@
       </c>
     </row>
     <row r="36" spans="8:14">
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="I36" s="33"/>
+      <c r="I36" s="32"/>
     </row>
     <row r="37" spans="8:14">
       <c r="H37" s="27" t="s">
@@ -28647,51 +28723,499 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="B1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L26" sqref="A26:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
-    <col min="1" max="4" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="9.140625" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="2:20" ht="25.5" customHeight="1" thickBot="1">
+      <c r="B1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="P9" s="28"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="H10" s="28"/>
-    </row>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+    </row>
+    <row r="2" spans="2:20">
+      <c r="B2" s="40" t="str">
+        <f>Auxiliar!K9</f>
+        <v>10 Principais Estados</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="I2" s="40" t="str">
+        <f>Auxiliar!N9</f>
+        <v>Cancelamento</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40" t="str">
+        <f>Auxiliar!H36</f>
+        <v>Análise de Formas de Pagamento</v>
+      </c>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="42"/>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="45"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="45"/>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="45"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="45"/>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="45"/>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="45"/>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="45"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="45"/>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="45"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="45"/>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="45"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="45"/>
+    </row>
+    <row r="12" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="49"/>
+    </row>
+    <row r="13" spans="2:20" ht="15.75" thickBot="1"/>
+    <row r="14" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="L14" s="40" t="str">
+        <f>Auxiliar!K21</f>
+        <v>Análise de Vendas São Paulo</v>
+      </c>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="42"/>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="40" t="str">
+        <f>Auxiliar!H24</f>
+        <v>Análise de Vendas Vendedor</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="G15" s="40" t="str">
+        <f>Auxiliar!H30</f>
+        <v>Análise de Comissão Vendedor</v>
+      </c>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="45"/>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="45"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="45"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="45"/>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="45"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="45"/>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="45"/>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="45"/>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="45"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="45"/>
+    </row>
+    <row r="24" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="49"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="49"/>
+    </row>
+    <row r="25" spans="2:20"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="N1:R1"/>
+  <mergeCells count="9">
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="L14:T14"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -28706,13 +29230,13 @@
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>13</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>600075</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>15</xdr:col>
+                    <xdr:col>17</xdr:col>
                     <xdr:colOff>914400</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>257175</xdr:rowOff>
@@ -28728,13 +29252,13 @@
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>15</xdr:col>
+                    <xdr:col>17</xdr:col>
                     <xdr:colOff>1000125</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>16</xdr:col>
+                    <xdr:col>18</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>257175</xdr:rowOff>
@@ -28750,13 +29274,13 @@
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>16</xdr:col>
+                    <xdr:col>18</xdr:col>
                     <xdr:colOff>209550</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>17</xdr:col>
+                    <xdr:col>19</xdr:col>
                     <xdr:colOff>485775</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>257175</xdr:rowOff>
